--- a/database/industries/siman/sekord/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekord/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekord\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C1FA2-EDD4-4F1C-8F8F-B8CD55131757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CA5DF-6DAD-40A6-8494-CA89A01DF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 12 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 2 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1504,86 +1504,86 @@
       <c r="AA11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
+      <c r="AB11" s="11">
+        <v>60386</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>56057</v>
       </c>
       <c r="AD11" s="11">
-        <v>60386</v>
+        <v>20406</v>
       </c>
       <c r="AE11" s="11">
-        <v>56057</v>
+        <v>21824</v>
       </c>
       <c r="AF11" s="11">
-        <v>20406</v>
+        <v>26772</v>
       </c>
       <c r="AG11" s="11">
-        <v>21824</v>
+        <v>46784</v>
       </c>
       <c r="AH11" s="11">
-        <v>26772</v>
+        <v>49152</v>
       </c>
       <c r="AI11" s="11">
-        <v>46784</v>
+        <v>44281</v>
       </c>
       <c r="AJ11" s="11">
-        <v>49152</v>
+        <v>38245</v>
       </c>
       <c r="AK11" s="11">
-        <v>44281</v>
+        <v>31251</v>
       </c>
       <c r="AL11" s="11">
-        <v>38245</v>
+        <v>33343</v>
       </c>
       <c r="AM11" s="11">
-        <v>31251</v>
+        <v>45089</v>
       </c>
       <c r="AN11" s="11">
-        <v>33343</v>
+        <v>40727</v>
       </c>
       <c r="AO11" s="11">
-        <v>45089</v>
+        <v>37223</v>
       </c>
       <c r="AP11" s="11">
-        <v>40727</v>
+        <v>23082</v>
       </c>
       <c r="AQ11" s="11">
-        <v>37223</v>
+        <v>7600</v>
       </c>
       <c r="AR11" s="11">
-        <v>23082</v>
+        <v>9858</v>
       </c>
       <c r="AS11" s="11">
-        <v>7600</v>
+        <v>26695</v>
       </c>
       <c r="AT11" s="11">
-        <v>9858</v>
+        <v>41657</v>
       </c>
       <c r="AU11" s="11">
-        <v>26695</v>
+        <v>40650</v>
       </c>
       <c r="AV11" s="11">
-        <v>41657</v>
+        <v>54789</v>
       </c>
       <c r="AW11" s="11">
-        <v>40650</v>
+        <v>48155</v>
       </c>
       <c r="AX11" s="11">
-        <v>54789</v>
+        <v>31005</v>
       </c>
       <c r="AY11" s="11">
-        <v>48155</v>
+        <v>32562</v>
       </c>
       <c r="AZ11" s="11">
-        <v>31005</v>
+        <v>47036</v>
       </c>
       <c r="BA11" s="11">
-        <v>32562</v>
+        <v>40757</v>
       </c>
       <c r="BB11" s="11">
-        <v>47036</v>
+        <v>33880</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1663,86 +1663,86 @@
       <c r="AA12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
+      <c r="AB12" s="13">
+        <v>5545</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>3461</v>
       </c>
       <c r="AD12" s="13">
-        <v>5545</v>
+        <v>4489</v>
       </c>
       <c r="AE12" s="13">
-        <v>3461</v>
+        <v>3967</v>
       </c>
       <c r="AF12" s="13">
-        <v>4489</v>
+        <v>3161</v>
       </c>
       <c r="AG12" s="13">
-        <v>3967</v>
+        <v>4983</v>
       </c>
       <c r="AH12" s="13">
-        <v>3161</v>
+        <v>4747</v>
       </c>
       <c r="AI12" s="13">
-        <v>4983</v>
+        <v>5498</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4747</v>
+        <v>4881</v>
       </c>
       <c r="AK12" s="13">
-        <v>5498</v>
+        <v>2138</v>
       </c>
       <c r="AL12" s="13">
-        <v>4881</v>
+        <v>3450</v>
       </c>
       <c r="AM12" s="13">
-        <v>2138</v>
+        <v>3342</v>
       </c>
       <c r="AN12" s="13">
-        <v>3450</v>
+        <v>4599</v>
       </c>
       <c r="AO12" s="13">
-        <v>3342</v>
+        <v>4167</v>
       </c>
       <c r="AP12" s="13">
-        <v>4599</v>
+        <v>3907</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4167</v>
+        <v>1430</v>
       </c>
       <c r="AR12" s="13">
-        <v>3907</v>
+        <v>1999</v>
       </c>
       <c r="AS12" s="13">
-        <v>1430</v>
+        <v>3978</v>
       </c>
       <c r="AT12" s="13">
-        <v>1999</v>
+        <v>2825</v>
       </c>
       <c r="AU12" s="13">
-        <v>3978</v>
+        <v>4030</v>
       </c>
       <c r="AV12" s="13">
-        <v>2825</v>
+        <v>5301</v>
       </c>
       <c r="AW12" s="13">
-        <v>4030</v>
+        <v>3599</v>
       </c>
       <c r="AX12" s="13">
-        <v>5301</v>
+        <v>5415</v>
       </c>
       <c r="AY12" s="13">
-        <v>3599</v>
+        <v>5394</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5415</v>
+        <v>4080</v>
       </c>
       <c r="BA12" s="13">
-        <v>5394</v>
+        <v>4928</v>
       </c>
       <c r="BB12" s="13">
-        <v>4080</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1821,85 +1821,85 @@
         <v>0</v>
       </c>
       <c r="AB13" s="15">
-        <v>0</v>
+        <v>65931</v>
       </c>
       <c r="AC13" s="15">
-        <v>0</v>
+        <v>59518</v>
       </c>
       <c r="AD13" s="15">
-        <v>65931</v>
+        <v>24895</v>
       </c>
       <c r="AE13" s="15">
-        <v>59518</v>
+        <v>25791</v>
       </c>
       <c r="AF13" s="15">
-        <v>24895</v>
+        <v>29933</v>
       </c>
       <c r="AG13" s="15">
-        <v>25791</v>
+        <v>51767</v>
       </c>
       <c r="AH13" s="15">
-        <v>29933</v>
+        <v>53899</v>
       </c>
       <c r="AI13" s="15">
-        <v>51767</v>
+        <v>49779</v>
       </c>
       <c r="AJ13" s="15">
-        <v>53899</v>
+        <v>43126</v>
       </c>
       <c r="AK13" s="15">
-        <v>49779</v>
+        <v>33389</v>
       </c>
       <c r="AL13" s="15">
-        <v>43126</v>
+        <v>36793</v>
       </c>
       <c r="AM13" s="15">
-        <v>33389</v>
+        <v>48431</v>
       </c>
       <c r="AN13" s="15">
-        <v>36793</v>
+        <v>45326</v>
       </c>
       <c r="AO13" s="15">
-        <v>48431</v>
+        <v>41390</v>
       </c>
       <c r="AP13" s="15">
-        <v>45326</v>
+        <v>26989</v>
       </c>
       <c r="AQ13" s="15">
-        <v>41390</v>
+        <v>9030</v>
       </c>
       <c r="AR13" s="15">
-        <v>26989</v>
+        <v>11857</v>
       </c>
       <c r="AS13" s="15">
-        <v>9030</v>
+        <v>30673</v>
       </c>
       <c r="AT13" s="15">
-        <v>11857</v>
+        <v>44482</v>
       </c>
       <c r="AU13" s="15">
-        <v>30673</v>
+        <v>44680</v>
       </c>
       <c r="AV13" s="15">
-        <v>44482</v>
+        <v>60090</v>
       </c>
       <c r="AW13" s="15">
-        <v>44680</v>
+        <v>51754</v>
       </c>
       <c r="AX13" s="15">
-        <v>60090</v>
+        <v>36420</v>
       </c>
       <c r="AY13" s="15">
-        <v>51754</v>
+        <v>37956</v>
       </c>
       <c r="AZ13" s="15">
-        <v>36420</v>
+        <v>51116</v>
       </c>
       <c r="BA13" s="15">
-        <v>37956</v>
+        <v>45685</v>
       </c>
       <c r="BB13" s="15">
-        <v>51116</v>
+        <v>37586</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2036,86 +2036,86 @@
       <c r="AA15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
+      <c r="AB15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AE15" s="11">
         <v>0</v>
       </c>
       <c r="AF15" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AH15" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AK15" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AL15" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AM15" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AN15" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AO15" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AP15" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AQ15" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AR15" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AS15" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AT15" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AU15" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AV15" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AW15" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AX15" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AY15" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AZ15" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2195,86 +2195,86 @@
       <c r="AA16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>58</v>
+      <c r="AB16" s="13">
+        <v>1552</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>1722</v>
       </c>
       <c r="AD16" s="13">
-        <v>1552</v>
+        <v>781</v>
       </c>
       <c r="AE16" s="13">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AF16" s="13">
-        <v>781</v>
+        <v>1223</v>
       </c>
       <c r="AG16" s="13">
-        <v>1437</v>
+        <v>1471</v>
       </c>
       <c r="AH16" s="13">
-        <v>1223</v>
+        <v>579</v>
       </c>
       <c r="AI16" s="13">
-        <v>1471</v>
+        <v>1594</v>
       </c>
       <c r="AJ16" s="13">
-        <v>579</v>
+        <v>1338</v>
       </c>
       <c r="AK16" s="13">
-        <v>1594</v>
+        <v>808</v>
       </c>
       <c r="AL16" s="13">
-        <v>1338</v>
+        <v>1025</v>
       </c>
       <c r="AM16" s="13">
-        <v>808</v>
+        <v>2494</v>
       </c>
       <c r="AN16" s="13">
-        <v>1025</v>
+        <v>1252</v>
       </c>
       <c r="AO16" s="13">
-        <v>2494</v>
+        <v>2100</v>
       </c>
       <c r="AP16" s="13">
-        <v>1252</v>
+        <v>2051</v>
       </c>
       <c r="AQ16" s="13">
-        <v>2100</v>
+        <v>343</v>
       </c>
       <c r="AR16" s="13">
-        <v>2051</v>
+        <v>233</v>
       </c>
       <c r="AS16" s="13">
-        <v>343</v>
+        <v>1344</v>
       </c>
       <c r="AT16" s="13">
-        <v>233</v>
+        <v>1941</v>
       </c>
       <c r="AU16" s="13">
-        <v>1344</v>
+        <v>2164</v>
       </c>
       <c r="AV16" s="13">
-        <v>1941</v>
+        <v>2458</v>
       </c>
       <c r="AW16" s="13">
-        <v>2164</v>
+        <v>1591</v>
       </c>
       <c r="AX16" s="13">
-        <v>2458</v>
+        <v>1261</v>
       </c>
       <c r="AY16" s="13">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="AZ16" s="13">
-        <v>1261</v>
+        <v>1928</v>
       </c>
       <c r="BA16" s="13">
-        <v>1620</v>
+        <v>747</v>
       </c>
       <c r="BB16" s="13">
-        <v>1928</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2353,85 +2353,85 @@
         <v>0</v>
       </c>
       <c r="AB17" s="15">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="AC17" s="15">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="AD17" s="15">
-        <v>1552</v>
+        <v>14890</v>
       </c>
       <c r="AE17" s="15">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AF17" s="15">
-        <v>14890</v>
+        <v>12103</v>
       </c>
       <c r="AG17" s="15">
-        <v>1437</v>
+        <v>57488</v>
       </c>
       <c r="AH17" s="15">
-        <v>12103</v>
+        <v>579</v>
       </c>
       <c r="AI17" s="15">
-        <v>57488</v>
+        <v>1594</v>
       </c>
       <c r="AJ17" s="15">
-        <v>579</v>
+        <v>45592</v>
       </c>
       <c r="AK17" s="15">
-        <v>1594</v>
+        <v>25830</v>
       </c>
       <c r="AL17" s="15">
-        <v>45592</v>
+        <v>34596</v>
       </c>
       <c r="AM17" s="15">
-        <v>25830</v>
+        <v>41841</v>
       </c>
       <c r="AN17" s="15">
-        <v>34596</v>
+        <v>22047</v>
       </c>
       <c r="AO17" s="15">
-        <v>41841</v>
+        <v>33865</v>
       </c>
       <c r="AP17" s="15">
-        <v>22047</v>
+        <v>48454</v>
       </c>
       <c r="AQ17" s="15">
-        <v>33865</v>
+        <v>15464</v>
       </c>
       <c r="AR17" s="15">
-        <v>48454</v>
+        <v>55263</v>
       </c>
       <c r="AS17" s="15">
-        <v>15464</v>
+        <v>67821</v>
       </c>
       <c r="AT17" s="15">
-        <v>55263</v>
+        <v>52077</v>
       </c>
       <c r="AU17" s="15">
-        <v>67821</v>
+        <v>30669</v>
       </c>
       <c r="AV17" s="15">
-        <v>52077</v>
+        <v>12458</v>
       </c>
       <c r="AW17" s="15">
-        <v>30669</v>
+        <v>21591</v>
       </c>
       <c r="AX17" s="15">
-        <v>12458</v>
+        <v>21261</v>
       </c>
       <c r="AY17" s="15">
-        <v>21591</v>
+        <v>5439</v>
       </c>
       <c r="AZ17" s="15">
-        <v>21261</v>
+        <v>1928</v>
       </c>
       <c r="BA17" s="15">
-        <v>5439</v>
+        <v>747</v>
       </c>
       <c r="BB17" s="15">
-        <v>1928</v>
+        <v>37978</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2566,11 +2566,11 @@
       <c r="AA19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC19" s="15" t="s">
-        <v>58</v>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
       </c>
       <c r="AD19" s="15">
         <v>0</v>
@@ -2724,85 +2724,85 @@
         <v>0</v>
       </c>
       <c r="AB20" s="19">
-        <v>0</v>
+        <v>67483</v>
       </c>
       <c r="AC20" s="19">
-        <v>0</v>
+        <v>61240</v>
       </c>
       <c r="AD20" s="19">
-        <v>67483</v>
+        <v>39785</v>
       </c>
       <c r="AE20" s="19">
-        <v>61240</v>
+        <v>27228</v>
       </c>
       <c r="AF20" s="19">
-        <v>39785</v>
+        <v>42036</v>
       </c>
       <c r="AG20" s="19">
-        <v>27228</v>
+        <v>109255</v>
       </c>
       <c r="AH20" s="19">
-        <v>42036</v>
+        <v>54478</v>
       </c>
       <c r="AI20" s="19">
-        <v>109255</v>
+        <v>51373</v>
       </c>
       <c r="AJ20" s="19">
-        <v>54478</v>
+        <v>88718</v>
       </c>
       <c r="AK20" s="19">
-        <v>51373</v>
+        <v>59219</v>
       </c>
       <c r="AL20" s="19">
-        <v>88718</v>
+        <v>71389</v>
       </c>
       <c r="AM20" s="19">
-        <v>59219</v>
+        <v>90272</v>
       </c>
       <c r="AN20" s="19">
-        <v>71389</v>
+        <v>67373</v>
       </c>
       <c r="AO20" s="19">
-        <v>90272</v>
+        <v>75255</v>
       </c>
       <c r="AP20" s="19">
-        <v>67373</v>
+        <v>75443</v>
       </c>
       <c r="AQ20" s="19">
-        <v>75255</v>
+        <v>24494</v>
       </c>
       <c r="AR20" s="19">
-        <v>75443</v>
+        <v>67120</v>
       </c>
       <c r="AS20" s="19">
-        <v>24494</v>
+        <v>98494</v>
       </c>
       <c r="AT20" s="19">
-        <v>67120</v>
+        <v>96559</v>
       </c>
       <c r="AU20" s="19">
-        <v>98494</v>
+        <v>75349</v>
       </c>
       <c r="AV20" s="19">
-        <v>96559</v>
+        <v>72548</v>
       </c>
       <c r="AW20" s="19">
-        <v>75349</v>
+        <v>73345</v>
       </c>
       <c r="AX20" s="19">
-        <v>72548</v>
+        <v>57681</v>
       </c>
       <c r="AY20" s="19">
-        <v>73345</v>
+        <v>43395</v>
       </c>
       <c r="AZ20" s="19">
-        <v>57681</v>
+        <v>53044</v>
       </c>
       <c r="BA20" s="19">
-        <v>43395</v>
+        <v>46432</v>
       </c>
       <c r="BB20" s="19">
-        <v>53044</v>
+        <v>75564</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3316,86 +3316,86 @@
       <c r="AA27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>58</v>
+      <c r="AB27" s="11">
+        <v>62774</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>51932</v>
       </c>
       <c r="AD27" s="11">
-        <v>62774</v>
+        <v>25581</v>
       </c>
       <c r="AE27" s="11">
-        <v>51932</v>
+        <v>21938</v>
       </c>
       <c r="AF27" s="11">
-        <v>25581</v>
+        <v>21134</v>
       </c>
       <c r="AG27" s="11">
-        <v>21938</v>
+        <v>47307</v>
       </c>
       <c r="AH27" s="11">
-        <v>21134</v>
+        <v>47330</v>
       </c>
       <c r="AI27" s="11">
-        <v>47307</v>
+        <v>49149</v>
       </c>
       <c r="AJ27" s="11">
-        <v>47330</v>
+        <v>40285</v>
       </c>
       <c r="AK27" s="11">
-        <v>49149</v>
+        <v>25526</v>
       </c>
       <c r="AL27" s="11">
-        <v>40285</v>
+        <v>36204</v>
       </c>
       <c r="AM27" s="11">
-        <v>25526</v>
+        <v>48527</v>
       </c>
       <c r="AN27" s="11">
-        <v>36204</v>
+        <v>40867</v>
       </c>
       <c r="AO27" s="11">
-        <v>48527</v>
+        <v>31311</v>
       </c>
       <c r="AP27" s="11">
-        <v>40867</v>
+        <v>24699</v>
       </c>
       <c r="AQ27" s="11">
-        <v>31311</v>
+        <v>14158</v>
       </c>
       <c r="AR27" s="11">
-        <v>24699</v>
+        <v>14113</v>
       </c>
       <c r="AS27" s="11">
-        <v>14158</v>
+        <v>27893</v>
       </c>
       <c r="AT27" s="11">
-        <v>14113</v>
+        <v>31202</v>
       </c>
       <c r="AU27" s="11">
-        <v>27893</v>
+        <v>48443</v>
       </c>
       <c r="AV27" s="11">
-        <v>31202</v>
+        <v>54321</v>
       </c>
       <c r="AW27" s="11">
-        <v>48443</v>
+        <v>41891</v>
       </c>
       <c r="AX27" s="11">
-        <v>54321</v>
+        <v>31461</v>
       </c>
       <c r="AY27" s="11">
-        <v>41891</v>
+        <v>38913</v>
       </c>
       <c r="AZ27" s="11">
-        <v>31461</v>
+        <v>39577</v>
       </c>
       <c r="BA27" s="11">
-        <v>38913</v>
+        <v>39523</v>
       </c>
       <c r="BB27" s="11">
-        <v>39577</v>
+        <v>30793</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3475,86 +3475,86 @@
       <c r="AA28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>58</v>
+      <c r="AB28" s="13">
+        <v>4825</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>3632</v>
       </c>
       <c r="AD28" s="13">
-        <v>4825</v>
+        <v>5829</v>
       </c>
       <c r="AE28" s="13">
-        <v>3632</v>
+        <v>3905</v>
       </c>
       <c r="AF28" s="13">
-        <v>5829</v>
+        <v>3175</v>
       </c>
       <c r="AG28" s="13">
-        <v>3905</v>
+        <v>4652</v>
       </c>
       <c r="AH28" s="13">
-        <v>3175</v>
+        <v>3469</v>
       </c>
       <c r="AI28" s="13">
-        <v>4652</v>
+        <v>7154</v>
       </c>
       <c r="AJ28" s="13">
-        <v>3469</v>
+        <v>4643</v>
       </c>
       <c r="AK28" s="13">
-        <v>7154</v>
+        <v>2852</v>
       </c>
       <c r="AL28" s="13">
-        <v>4643</v>
+        <v>4072</v>
       </c>
       <c r="AM28" s="13">
-        <v>2852</v>
+        <v>3980</v>
       </c>
       <c r="AN28" s="13">
-        <v>4072</v>
+        <v>5437</v>
       </c>
       <c r="AO28" s="13">
-        <v>3980</v>
+        <v>4690</v>
       </c>
       <c r="AP28" s="13">
-        <v>5437</v>
+        <v>4066</v>
       </c>
       <c r="AQ28" s="13">
-        <v>4690</v>
+        <v>1474</v>
       </c>
       <c r="AR28" s="13">
-        <v>4066</v>
+        <v>1087</v>
       </c>
       <c r="AS28" s="13">
-        <v>1474</v>
+        <v>3532</v>
       </c>
       <c r="AT28" s="13">
-        <v>1087</v>
+        <v>3356</v>
       </c>
       <c r="AU28" s="13">
-        <v>3532</v>
+        <v>4689</v>
       </c>
       <c r="AV28" s="13">
-        <v>3356</v>
+        <v>5401</v>
       </c>
       <c r="AW28" s="13">
-        <v>4689</v>
+        <v>4667</v>
       </c>
       <c r="AX28" s="13">
-        <v>5401</v>
+        <v>4848</v>
       </c>
       <c r="AY28" s="13">
-        <v>4667</v>
+        <v>6406</v>
       </c>
       <c r="AZ28" s="13">
-        <v>4848</v>
+        <v>4620</v>
       </c>
       <c r="BA28" s="13">
-        <v>6406</v>
+        <v>5106</v>
       </c>
       <c r="BB28" s="13">
-        <v>4620</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3633,85 +3633,85 @@
         <v>0</v>
       </c>
       <c r="AB29" s="15">
-        <v>0</v>
+        <v>67599</v>
       </c>
       <c r="AC29" s="15">
-        <v>0</v>
+        <v>55564</v>
       </c>
       <c r="AD29" s="15">
-        <v>67599</v>
+        <v>31410</v>
       </c>
       <c r="AE29" s="15">
-        <v>55564</v>
+        <v>25843</v>
       </c>
       <c r="AF29" s="15">
-        <v>31410</v>
+        <v>24309</v>
       </c>
       <c r="AG29" s="15">
-        <v>25843</v>
+        <v>51959</v>
       </c>
       <c r="AH29" s="15">
-        <v>24309</v>
+        <v>50799</v>
       </c>
       <c r="AI29" s="15">
-        <v>51959</v>
+        <v>56303</v>
       </c>
       <c r="AJ29" s="15">
-        <v>50799</v>
+        <v>44928</v>
       </c>
       <c r="AK29" s="15">
-        <v>56303</v>
+        <v>28378</v>
       </c>
       <c r="AL29" s="15">
-        <v>44928</v>
+        <v>40276</v>
       </c>
       <c r="AM29" s="15">
-        <v>28378</v>
+        <v>52507</v>
       </c>
       <c r="AN29" s="15">
-        <v>40276</v>
+        <v>46304</v>
       </c>
       <c r="AO29" s="15">
-        <v>52507</v>
+        <v>36001</v>
       </c>
       <c r="AP29" s="15">
-        <v>46304</v>
+        <v>28765</v>
       </c>
       <c r="AQ29" s="15">
-        <v>36001</v>
+        <v>15632</v>
       </c>
       <c r="AR29" s="15">
-        <v>28765</v>
+        <v>15200</v>
       </c>
       <c r="AS29" s="15">
-        <v>15632</v>
+        <v>31425</v>
       </c>
       <c r="AT29" s="15">
-        <v>15200</v>
+        <v>34558</v>
       </c>
       <c r="AU29" s="15">
-        <v>31425</v>
+        <v>53132</v>
       </c>
       <c r="AV29" s="15">
-        <v>34558</v>
+        <v>59722</v>
       </c>
       <c r="AW29" s="15">
-        <v>53132</v>
+        <v>46558</v>
       </c>
       <c r="AX29" s="15">
-        <v>59722</v>
+        <v>36309</v>
       </c>
       <c r="AY29" s="15">
-        <v>46558</v>
+        <v>45319</v>
       </c>
       <c r="AZ29" s="15">
-        <v>36309</v>
+        <v>44197</v>
       </c>
       <c r="BA29" s="15">
-        <v>45319</v>
+        <v>44629</v>
       </c>
       <c r="BB29" s="15">
-        <v>44197</v>
+        <v>34990</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3848,86 +3848,86 @@
       <c r="AA31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC31" s="11" t="s">
-        <v>58</v>
+      <c r="AB31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>0</v>
       </c>
       <c r="AD31" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AE31" s="11">
         <v>0</v>
       </c>
       <c r="AF31" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AG31" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AH31" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AK31" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AL31" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AM31" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AN31" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AO31" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AP31" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AQ31" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AR31" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AS31" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AT31" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AU31" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AV31" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AW31" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AX31" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AY31" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AZ31" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4007,86 +4007,86 @@
       <c r="AA32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC32" s="13" t="s">
-        <v>58</v>
+      <c r="AB32" s="13">
+        <v>1552</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1722</v>
       </c>
       <c r="AD32" s="13">
-        <v>1552</v>
+        <v>781</v>
       </c>
       <c r="AE32" s="13">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AF32" s="13">
-        <v>781</v>
+        <v>1223</v>
       </c>
       <c r="AG32" s="13">
-        <v>1437</v>
+        <v>1471</v>
       </c>
       <c r="AH32" s="13">
-        <v>1223</v>
+        <v>579</v>
       </c>
       <c r="AI32" s="13">
-        <v>1471</v>
+        <v>1594</v>
       </c>
       <c r="AJ32" s="13">
-        <v>579</v>
+        <v>1338</v>
       </c>
       <c r="AK32" s="13">
-        <v>1594</v>
+        <v>808</v>
       </c>
       <c r="AL32" s="13">
-        <v>1338</v>
+        <v>1025</v>
       </c>
       <c r="AM32" s="13">
-        <v>808</v>
+        <v>2494</v>
       </c>
       <c r="AN32" s="13">
-        <v>1025</v>
+        <v>1252</v>
       </c>
       <c r="AO32" s="13">
-        <v>2494</v>
+        <v>2100</v>
       </c>
       <c r="AP32" s="13">
-        <v>1252</v>
+        <v>2051</v>
       </c>
       <c r="AQ32" s="13">
-        <v>2100</v>
+        <v>343</v>
       </c>
       <c r="AR32" s="13">
-        <v>2051</v>
+        <v>233</v>
       </c>
       <c r="AS32" s="13">
-        <v>343</v>
+        <v>1344</v>
       </c>
       <c r="AT32" s="13">
-        <v>233</v>
+        <v>1941</v>
       </c>
       <c r="AU32" s="13">
-        <v>1344</v>
+        <v>2164</v>
       </c>
       <c r="AV32" s="13">
-        <v>1941</v>
+        <v>2458</v>
       </c>
       <c r="AW32" s="13">
-        <v>2164</v>
+        <v>1591</v>
       </c>
       <c r="AX32" s="13">
-        <v>2458</v>
+        <v>1261</v>
       </c>
       <c r="AY32" s="13">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1261</v>
+        <v>1928</v>
       </c>
       <c r="BA32" s="13">
-        <v>1620</v>
+        <v>747</v>
       </c>
       <c r="BB32" s="13">
-        <v>1928</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4165,85 +4165,85 @@
         <v>0</v>
       </c>
       <c r="AB33" s="15">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="AC33" s="15">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="AD33" s="15">
-        <v>1552</v>
+        <v>14890</v>
       </c>
       <c r="AE33" s="15">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AF33" s="15">
-        <v>14890</v>
+        <v>12103</v>
       </c>
       <c r="AG33" s="15">
-        <v>1437</v>
+        <v>57488</v>
       </c>
       <c r="AH33" s="15">
-        <v>12103</v>
+        <v>579</v>
       </c>
       <c r="AI33" s="15">
-        <v>57488</v>
+        <v>1594</v>
       </c>
       <c r="AJ33" s="15">
-        <v>579</v>
+        <v>45592</v>
       </c>
       <c r="AK33" s="15">
-        <v>1594</v>
+        <v>25830</v>
       </c>
       <c r="AL33" s="15">
-        <v>45592</v>
+        <v>34596</v>
       </c>
       <c r="AM33" s="15">
-        <v>25830</v>
+        <v>41841</v>
       </c>
       <c r="AN33" s="15">
-        <v>34596</v>
+        <v>22047</v>
       </c>
       <c r="AO33" s="15">
-        <v>41841</v>
+        <v>33865</v>
       </c>
       <c r="AP33" s="15">
-        <v>22047</v>
+        <v>48454</v>
       </c>
       <c r="AQ33" s="15">
-        <v>33865</v>
+        <v>15464</v>
       </c>
       <c r="AR33" s="15">
-        <v>48454</v>
+        <v>55263</v>
       </c>
       <c r="AS33" s="15">
-        <v>15464</v>
+        <v>67821</v>
       </c>
       <c r="AT33" s="15">
-        <v>55263</v>
+        <v>52077</v>
       </c>
       <c r="AU33" s="15">
-        <v>67821</v>
+        <v>30669</v>
       </c>
       <c r="AV33" s="15">
-        <v>52077</v>
+        <v>12458</v>
       </c>
       <c r="AW33" s="15">
-        <v>30669</v>
+        <v>21591</v>
       </c>
       <c r="AX33" s="15">
-        <v>12458</v>
+        <v>21261</v>
       </c>
       <c r="AY33" s="15">
-        <v>21591</v>
+        <v>5439</v>
       </c>
       <c r="AZ33" s="15">
-        <v>21261</v>
+        <v>1928</v>
       </c>
       <c r="BA33" s="15">
-        <v>5439</v>
+        <v>747</v>
       </c>
       <c r="BB33" s="15">
-        <v>1928</v>
+        <v>37978</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4378,11 +4378,11 @@
       <c r="AA35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC35" s="15" t="s">
-        <v>58</v>
+      <c r="AB35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>0</v>
       </c>
       <c r="AD35" s="15">
         <v>0</v>
@@ -4592,11 +4592,11 @@
       <c r="AA37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC37" s="15" t="s">
-        <v>58</v>
+      <c r="AB37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="15">
+        <v>0</v>
       </c>
       <c r="AD37" s="15">
         <v>0</v>
@@ -4750,85 +4750,85 @@
         <v>0</v>
       </c>
       <c r="AB38" s="19">
-        <v>0</v>
+        <v>69151</v>
       </c>
       <c r="AC38" s="19">
-        <v>0</v>
+        <v>57286</v>
       </c>
       <c r="AD38" s="19">
-        <v>69151</v>
+        <v>46300</v>
       </c>
       <c r="AE38" s="19">
-        <v>57286</v>
+        <v>27280</v>
       </c>
       <c r="AF38" s="19">
-        <v>46300</v>
+        <v>36412</v>
       </c>
       <c r="AG38" s="19">
-        <v>27280</v>
+        <v>109447</v>
       </c>
       <c r="AH38" s="19">
-        <v>36412</v>
+        <v>51378</v>
       </c>
       <c r="AI38" s="19">
-        <v>109447</v>
+        <v>57897</v>
       </c>
       <c r="AJ38" s="19">
-        <v>51378</v>
+        <v>90520</v>
       </c>
       <c r="AK38" s="19">
-        <v>57897</v>
+        <v>54208</v>
       </c>
       <c r="AL38" s="19">
-        <v>90520</v>
+        <v>74872</v>
       </c>
       <c r="AM38" s="19">
-        <v>54208</v>
+        <v>94348</v>
       </c>
       <c r="AN38" s="19">
-        <v>74872</v>
+        <v>68351</v>
       </c>
       <c r="AO38" s="19">
-        <v>94348</v>
+        <v>69866</v>
       </c>
       <c r="AP38" s="19">
-        <v>68351</v>
+        <v>77219</v>
       </c>
       <c r="AQ38" s="19">
-        <v>69866</v>
+        <v>31096</v>
       </c>
       <c r="AR38" s="19">
-        <v>77219</v>
+        <v>70463</v>
       </c>
       <c r="AS38" s="19">
-        <v>31096</v>
+        <v>99246</v>
       </c>
       <c r="AT38" s="19">
-        <v>70463</v>
+        <v>86635</v>
       </c>
       <c r="AU38" s="19">
-        <v>99246</v>
+        <v>83801</v>
       </c>
       <c r="AV38" s="19">
-        <v>86635</v>
+        <v>72180</v>
       </c>
       <c r="AW38" s="19">
-        <v>83801</v>
+        <v>68149</v>
       </c>
       <c r="AX38" s="19">
-        <v>72180</v>
+        <v>57570</v>
       </c>
       <c r="AY38" s="19">
-        <v>68149</v>
+        <v>50758</v>
       </c>
       <c r="AZ38" s="19">
-        <v>57570</v>
+        <v>46125</v>
       </c>
       <c r="BA38" s="19">
-        <v>50758</v>
+        <v>45376</v>
       </c>
       <c r="BB38" s="19">
-        <v>46125</v>
+        <v>72968</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5342,86 +5342,86 @@
       <c r="AA45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC45" s="11" t="s">
-        <v>58</v>
+      <c r="AB45" s="11">
+        <v>165672</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>140378</v>
       </c>
       <c r="AD45" s="11">
-        <v>165672</v>
+        <v>64842</v>
       </c>
       <c r="AE45" s="11">
-        <v>140378</v>
+        <v>54885</v>
       </c>
       <c r="AF45" s="11">
-        <v>64842</v>
+        <v>55580</v>
       </c>
       <c r="AG45" s="11">
-        <v>54885</v>
+        <v>123875</v>
       </c>
       <c r="AH45" s="11">
-        <v>55580</v>
+        <v>124775</v>
       </c>
       <c r="AI45" s="11">
-        <v>123875</v>
+        <v>181996</v>
       </c>
       <c r="AJ45" s="11">
-        <v>124775</v>
+        <v>148374</v>
       </c>
       <c r="AK45" s="11">
-        <v>181996</v>
+        <v>94153</v>
       </c>
       <c r="AL45" s="11">
-        <v>148374</v>
+        <v>223673</v>
       </c>
       <c r="AM45" s="11">
-        <v>94153</v>
+        <v>262463</v>
       </c>
       <c r="AN45" s="11">
-        <v>223673</v>
+        <v>180814</v>
       </c>
       <c r="AO45" s="11">
-        <v>262463</v>
+        <v>130491</v>
       </c>
       <c r="AP45" s="11">
-        <v>180814</v>
+        <v>100132</v>
       </c>
       <c r="AQ45" s="11">
-        <v>130491</v>
+        <v>54410</v>
       </c>
       <c r="AR45" s="11">
-        <v>100132</v>
+        <v>57866</v>
       </c>
       <c r="AS45" s="11">
-        <v>54410</v>
+        <v>136539</v>
       </c>
       <c r="AT45" s="11">
-        <v>57866</v>
+        <v>168762</v>
       </c>
       <c r="AU45" s="11">
-        <v>136539</v>
+        <v>247379</v>
       </c>
       <c r="AV45" s="11">
-        <v>168762</v>
+        <v>300713</v>
       </c>
       <c r="AW45" s="11">
-        <v>247379</v>
+        <v>260169</v>
       </c>
       <c r="AX45" s="11">
-        <v>300713</v>
+        <v>196268</v>
       </c>
       <c r="AY45" s="11">
-        <v>260169</v>
+        <v>238550</v>
       </c>
       <c r="AZ45" s="11">
-        <v>196268</v>
+        <v>238758</v>
       </c>
       <c r="BA45" s="11">
-        <v>238550</v>
+        <v>227185</v>
       </c>
       <c r="BB45" s="11">
-        <v>238758</v>
+        <v>177155</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5501,86 +5501,86 @@
       <c r="AA46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC46" s="13" t="s">
-        <v>58</v>
+      <c r="AB46" s="13">
+        <v>12434</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>10969</v>
       </c>
       <c r="AD46" s="13">
+        <v>16345</v>
+      </c>
+      <c r="AE46" s="13">
         <v>12434</v>
       </c>
-      <c r="AE46" s="13">
-        <v>10969</v>
-      </c>
       <c r="AF46" s="13">
-        <v>16345</v>
+        <v>10260</v>
       </c>
       <c r="AG46" s="13">
-        <v>12434</v>
+        <v>15232</v>
       </c>
       <c r="AH46" s="13">
-        <v>10260</v>
+        <v>10773</v>
       </c>
       <c r="AI46" s="13">
-        <v>15232</v>
+        <v>21935</v>
       </c>
       <c r="AJ46" s="13">
-        <v>10773</v>
+        <v>22620</v>
       </c>
       <c r="AK46" s="13">
-        <v>21935</v>
+        <v>20988</v>
       </c>
       <c r="AL46" s="13">
-        <v>22620</v>
+        <v>20549</v>
       </c>
       <c r="AM46" s="13">
-        <v>20988</v>
+        <v>20695</v>
       </c>
       <c r="AN46" s="13">
-        <v>20549</v>
+        <v>26831</v>
       </c>
       <c r="AO46" s="13">
-        <v>20695</v>
+        <v>23760</v>
       </c>
       <c r="AP46" s="13">
-        <v>26831</v>
+        <v>21339</v>
       </c>
       <c r="AQ46" s="13">
-        <v>23760</v>
+        <v>7763</v>
       </c>
       <c r="AR46" s="13">
-        <v>21339</v>
+        <v>5973</v>
       </c>
       <c r="AS46" s="13">
-        <v>7763</v>
+        <v>18852</v>
       </c>
       <c r="AT46" s="13">
-        <v>5973</v>
+        <v>18686</v>
       </c>
       <c r="AU46" s="13">
-        <v>18852</v>
+        <v>30732</v>
       </c>
       <c r="AV46" s="13">
-        <v>18686</v>
+        <v>36705</v>
       </c>
       <c r="AW46" s="13">
-        <v>30732</v>
+        <v>32530</v>
       </c>
       <c r="AX46" s="13">
-        <v>36705</v>
+        <v>33281</v>
       </c>
       <c r="AY46" s="13">
-        <v>32530</v>
+        <v>43896</v>
       </c>
       <c r="AZ46" s="13">
-        <v>33281</v>
+        <v>33136</v>
       </c>
       <c r="BA46" s="13">
-        <v>43896</v>
+        <v>36015</v>
       </c>
       <c r="BB46" s="13">
-        <v>33136</v>
+        <v>30489</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5659,85 +5659,85 @@
         <v>0</v>
       </c>
       <c r="AB47" s="15">
-        <v>0</v>
+        <v>178106</v>
       </c>
       <c r="AC47" s="15">
-        <v>0</v>
+        <v>151347</v>
       </c>
       <c r="AD47" s="15">
-        <v>178106</v>
+        <v>81187</v>
       </c>
       <c r="AE47" s="15">
-        <v>151347</v>
+        <v>67319</v>
       </c>
       <c r="AF47" s="15">
-        <v>81187</v>
+        <v>65840</v>
       </c>
       <c r="AG47" s="15">
-        <v>67319</v>
+        <v>139107</v>
       </c>
       <c r="AH47" s="15">
-        <v>65840</v>
+        <v>135548</v>
       </c>
       <c r="AI47" s="15">
-        <v>139107</v>
+        <v>203931</v>
       </c>
       <c r="AJ47" s="15">
-        <v>135548</v>
+        <v>170994</v>
       </c>
       <c r="AK47" s="15">
-        <v>203931</v>
+        <v>115141</v>
       </c>
       <c r="AL47" s="15">
-        <v>170994</v>
+        <v>244222</v>
       </c>
       <c r="AM47" s="15">
-        <v>115141</v>
+        <v>283158</v>
       </c>
       <c r="AN47" s="15">
-        <v>244222</v>
+        <v>207645</v>
       </c>
       <c r="AO47" s="15">
-        <v>283158</v>
+        <v>154251</v>
       </c>
       <c r="AP47" s="15">
-        <v>207645</v>
+        <v>121471</v>
       </c>
       <c r="AQ47" s="15">
-        <v>154251</v>
+        <v>62173</v>
       </c>
       <c r="AR47" s="15">
-        <v>121471</v>
+        <v>63839</v>
       </c>
       <c r="AS47" s="15">
-        <v>62173</v>
+        <v>155391</v>
       </c>
       <c r="AT47" s="15">
-        <v>63839</v>
+        <v>187448</v>
       </c>
       <c r="AU47" s="15">
-        <v>155391</v>
+        <v>278111</v>
       </c>
       <c r="AV47" s="15">
-        <v>187448</v>
+        <v>337418</v>
       </c>
       <c r="AW47" s="15">
-        <v>278111</v>
+        <v>292699</v>
       </c>
       <c r="AX47" s="15">
-        <v>337418</v>
+        <v>229549</v>
       </c>
       <c r="AY47" s="15">
-        <v>292699</v>
+        <v>282446</v>
       </c>
       <c r="AZ47" s="15">
-        <v>229549</v>
+        <v>271894</v>
       </c>
       <c r="BA47" s="15">
-        <v>282446</v>
+        <v>263200</v>
       </c>
       <c r="BB47" s="15">
-        <v>271894</v>
+        <v>207644</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5874,86 +5874,86 @@
       <c r="AA49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC49" s="11" t="s">
-        <v>58</v>
+      <c r="AB49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="11">
+        <v>0</v>
       </c>
       <c r="AD49" s="11">
-        <v>0</v>
+        <v>60384</v>
       </c>
       <c r="AE49" s="11">
         <v>0</v>
       </c>
       <c r="AF49" s="11">
-        <v>60384</v>
+        <v>42826</v>
       </c>
       <c r="AG49" s="11">
-        <v>0</v>
+        <v>242064</v>
       </c>
       <c r="AH49" s="11">
-        <v>42826</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="11">
-        <v>242064</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="11">
-        <v>0</v>
+        <v>196183</v>
       </c>
       <c r="AK49" s="11">
-        <v>0</v>
+        <v>196101</v>
       </c>
       <c r="AL49" s="11">
-        <v>196183</v>
+        <v>184633</v>
       </c>
       <c r="AM49" s="11">
-        <v>196101</v>
+        <v>244366</v>
       </c>
       <c r="AN49" s="11">
-        <v>184633</v>
+        <v>155048</v>
       </c>
       <c r="AO49" s="11">
-        <v>244366</v>
+        <v>199137</v>
       </c>
       <c r="AP49" s="11">
-        <v>155048</v>
+        <v>299420</v>
       </c>
       <c r="AQ49" s="11">
-        <v>199137</v>
+        <v>97082</v>
       </c>
       <c r="AR49" s="11">
-        <v>299420</v>
+        <v>329677</v>
       </c>
       <c r="AS49" s="11">
-        <v>97082</v>
+        <v>422578</v>
       </c>
       <c r="AT49" s="11">
-        <v>329677</v>
+        <v>320043</v>
       </c>
       <c r="AU49" s="11">
-        <v>422578</v>
+        <v>185287</v>
       </c>
       <c r="AV49" s="11">
-        <v>320043</v>
+        <v>68669</v>
       </c>
       <c r="AW49" s="11">
-        <v>185287</v>
+        <v>139682</v>
       </c>
       <c r="AX49" s="11">
-        <v>68669</v>
+        <v>132643</v>
       </c>
       <c r="AY49" s="11">
-        <v>139682</v>
+        <v>22556</v>
       </c>
       <c r="AZ49" s="11">
-        <v>132643</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="11">
-        <v>22556</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="11">
-        <v>0</v>
+        <v>235839</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6033,86 +6033,86 @@
       <c r="AA50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC50" s="13" t="s">
-        <v>58</v>
+      <c r="AB50" s="13">
+        <v>7873</v>
+      </c>
+      <c r="AC50" s="13">
+        <v>8853</v>
       </c>
       <c r="AD50" s="13">
-        <v>7873</v>
+        <v>4592</v>
       </c>
       <c r="AE50" s="13">
-        <v>8853</v>
+        <v>8678</v>
       </c>
       <c r="AF50" s="13">
-        <v>4592</v>
+        <v>7389</v>
       </c>
       <c r="AG50" s="13">
-        <v>8678</v>
+        <v>8927</v>
       </c>
       <c r="AH50" s="13">
-        <v>7389</v>
+        <v>3447</v>
       </c>
       <c r="AI50" s="13">
-        <v>8927</v>
+        <v>10584</v>
       </c>
       <c r="AJ50" s="13">
-        <v>3447</v>
+        <v>8885</v>
       </c>
       <c r="AK50" s="13">
-        <v>10584</v>
+        <v>6624</v>
       </c>
       <c r="AL50" s="13">
-        <v>8885</v>
+        <v>7518</v>
       </c>
       <c r="AM50" s="13">
-        <v>6624</v>
+        <v>22063</v>
       </c>
       <c r="AN50" s="13">
-        <v>7518</v>
+        <v>9254</v>
       </c>
       <c r="AO50" s="13">
-        <v>22063</v>
+        <v>17602</v>
       </c>
       <c r="AP50" s="13">
-        <v>9254</v>
+        <v>13946</v>
       </c>
       <c r="AQ50" s="13">
-        <v>17602</v>
+        <v>2257</v>
       </c>
       <c r="AR50" s="13">
-        <v>13946</v>
+        <v>1556</v>
       </c>
       <c r="AS50" s="13">
-        <v>2257</v>
+        <v>10297</v>
       </c>
       <c r="AT50" s="13">
-        <v>1556</v>
+        <v>13261</v>
       </c>
       <c r="AU50" s="13">
-        <v>10297</v>
+        <v>14051</v>
       </c>
       <c r="AV50" s="13">
-        <v>13261</v>
+        <v>14217</v>
       </c>
       <c r="AW50" s="13">
-        <v>14051</v>
+        <v>9232</v>
       </c>
       <c r="AX50" s="13">
-        <v>14217</v>
+        <v>7234</v>
       </c>
       <c r="AY50" s="13">
-        <v>9232</v>
+        <v>10383</v>
       </c>
       <c r="AZ50" s="13">
-        <v>7234</v>
+        <v>12348</v>
       </c>
       <c r="BA50" s="13">
-        <v>10383</v>
+        <v>4889</v>
       </c>
       <c r="BB50" s="13">
-        <v>12348</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6191,85 +6191,85 @@
         <v>0</v>
       </c>
       <c r="AB51" s="15">
-        <v>0</v>
+        <v>7873</v>
       </c>
       <c r="AC51" s="15">
-        <v>0</v>
+        <v>8853</v>
       </c>
       <c r="AD51" s="15">
-        <v>7873</v>
+        <v>64976</v>
       </c>
       <c r="AE51" s="15">
-        <v>8853</v>
+        <v>8678</v>
       </c>
       <c r="AF51" s="15">
-        <v>64976</v>
+        <v>50215</v>
       </c>
       <c r="AG51" s="15">
-        <v>8678</v>
+        <v>250991</v>
       </c>
       <c r="AH51" s="15">
-        <v>50215</v>
+        <v>3447</v>
       </c>
       <c r="AI51" s="15">
-        <v>250991</v>
+        <v>10584</v>
       </c>
       <c r="AJ51" s="15">
-        <v>3447</v>
+        <v>205068</v>
       </c>
       <c r="AK51" s="15">
-        <v>10584</v>
+        <v>202725</v>
       </c>
       <c r="AL51" s="15">
-        <v>205068</v>
+        <v>192151</v>
       </c>
       <c r="AM51" s="15">
-        <v>202725</v>
+        <v>266429</v>
       </c>
       <c r="AN51" s="15">
-        <v>192151</v>
+        <v>164302</v>
       </c>
       <c r="AO51" s="15">
-        <v>266429</v>
+        <v>216739</v>
       </c>
       <c r="AP51" s="15">
-        <v>164302</v>
+        <v>313366</v>
       </c>
       <c r="AQ51" s="15">
-        <v>216739</v>
+        <v>99339</v>
       </c>
       <c r="AR51" s="15">
-        <v>313366</v>
+        <v>331233</v>
       </c>
       <c r="AS51" s="15">
-        <v>99339</v>
+        <v>432875</v>
       </c>
       <c r="AT51" s="15">
-        <v>331233</v>
+        <v>333304</v>
       </c>
       <c r="AU51" s="15">
-        <v>432875</v>
+        <v>199338</v>
       </c>
       <c r="AV51" s="15">
-        <v>333304</v>
+        <v>82886</v>
       </c>
       <c r="AW51" s="15">
-        <v>199338</v>
+        <v>148914</v>
       </c>
       <c r="AX51" s="15">
-        <v>82886</v>
+        <v>139877</v>
       </c>
       <c r="AY51" s="15">
-        <v>148914</v>
+        <v>32939</v>
       </c>
       <c r="AZ51" s="15">
-        <v>139877</v>
+        <v>12348</v>
       </c>
       <c r="BA51" s="15">
-        <v>32939</v>
+        <v>4889</v>
       </c>
       <c r="BB51" s="15">
-        <v>12348</v>
+        <v>242567</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6406,11 +6406,11 @@
       <c r="AA53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB53" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC53" s="15" t="s">
-        <v>58</v>
+      <c r="AB53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="15">
+        <v>0</v>
       </c>
       <c r="AD53" s="15">
         <v>0</v>
@@ -6622,11 +6622,11 @@
       <c r="AA55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC55" s="15" t="s">
-        <v>58</v>
+      <c r="AB55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="15">
+        <v>0</v>
       </c>
       <c r="AD55" s="15">
         <v>0</v>
@@ -6838,11 +6838,11 @@
       <c r="AA57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>58</v>
+      <c r="AB57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0</v>
       </c>
       <c r="AD57" s="11">
         <v>0</v>
@@ -6996,85 +6996,85 @@
         <v>0</v>
       </c>
       <c r="AB58" s="19">
-        <v>0</v>
+        <v>185979</v>
       </c>
       <c r="AC58" s="19">
-        <v>0</v>
+        <v>160200</v>
       </c>
       <c r="AD58" s="19">
-        <v>185979</v>
+        <v>146163</v>
       </c>
       <c r="AE58" s="19">
-        <v>160200</v>
+        <v>75997</v>
       </c>
       <c r="AF58" s="19">
-        <v>146163</v>
+        <v>116055</v>
       </c>
       <c r="AG58" s="19">
-        <v>75997</v>
+        <v>390098</v>
       </c>
       <c r="AH58" s="19">
-        <v>116055</v>
+        <v>138995</v>
       </c>
       <c r="AI58" s="19">
-        <v>390098</v>
+        <v>214515</v>
       </c>
       <c r="AJ58" s="19">
-        <v>138995</v>
+        <v>376062</v>
       </c>
       <c r="AK58" s="19">
-        <v>214515</v>
+        <v>317866</v>
       </c>
       <c r="AL58" s="19">
-        <v>376062</v>
+        <v>436373</v>
       </c>
       <c r="AM58" s="19">
-        <v>317866</v>
+        <v>549587</v>
       </c>
       <c r="AN58" s="19">
-        <v>436373</v>
+        <v>371947</v>
       </c>
       <c r="AO58" s="19">
-        <v>549587</v>
+        <v>370990</v>
       </c>
       <c r="AP58" s="19">
-        <v>371947</v>
+        <v>434837</v>
       </c>
       <c r="AQ58" s="19">
-        <v>370990</v>
+        <v>161512</v>
       </c>
       <c r="AR58" s="19">
-        <v>434837</v>
+        <v>395072</v>
       </c>
       <c r="AS58" s="19">
-        <v>161512</v>
+        <v>588266</v>
       </c>
       <c r="AT58" s="19">
-        <v>395072</v>
+        <v>520752</v>
       </c>
       <c r="AU58" s="19">
-        <v>588266</v>
+        <v>477449</v>
       </c>
       <c r="AV58" s="19">
-        <v>520752</v>
+        <v>420304</v>
       </c>
       <c r="AW58" s="19">
-        <v>477449</v>
+        <v>441613</v>
       </c>
       <c r="AX58" s="19">
-        <v>420304</v>
+        <v>369426</v>
       </c>
       <c r="AY58" s="19">
-        <v>441613</v>
+        <v>315385</v>
       </c>
       <c r="AZ58" s="19">
-        <v>369426</v>
+        <v>284242</v>
       </c>
       <c r="BA58" s="19">
-        <v>315385</v>
+        <v>268089</v>
       </c>
       <c r="BB58" s="19">
-        <v>284242</v>
+        <v>450211</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7588,86 +7588,86 @@
       <c r="AA65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC65" s="11" t="s">
-        <v>58</v>
+      <c r="AB65" s="11">
+        <v>2639182</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>2703112</v>
       </c>
       <c r="AD65" s="11">
-        <v>2639182</v>
+        <v>2534772</v>
       </c>
       <c r="AE65" s="11">
-        <v>2703112</v>
+        <v>2501823</v>
       </c>
       <c r="AF65" s="11">
-        <v>2534772</v>
+        <v>2629885</v>
       </c>
       <c r="AG65" s="11">
-        <v>2501823</v>
+        <v>2618534</v>
       </c>
       <c r="AH65" s="11">
-        <v>2629885</v>
+        <v>2636277</v>
       </c>
       <c r="AI65" s="11">
-        <v>2618534</v>
+        <v>3702944</v>
       </c>
       <c r="AJ65" s="11">
-        <v>2636277</v>
+        <v>3683108</v>
       </c>
       <c r="AK65" s="11">
-        <v>3702944</v>
+        <v>3688514</v>
       </c>
       <c r="AL65" s="11">
-        <v>3683108</v>
+        <v>6178129</v>
       </c>
       <c r="AM65" s="11">
-        <v>3688514</v>
+        <v>5408597</v>
       </c>
       <c r="AN65" s="11">
-        <v>6178129</v>
+        <v>4424450</v>
       </c>
       <c r="AO65" s="11">
-        <v>5408597</v>
+        <v>4167577</v>
       </c>
       <c r="AP65" s="11">
-        <v>4424450</v>
+        <v>4054091</v>
       </c>
       <c r="AQ65" s="11">
-        <v>4167577</v>
+        <v>3843057</v>
       </c>
       <c r="AR65" s="11">
-        <v>4054091</v>
+        <v>4100191</v>
       </c>
       <c r="AS65" s="11">
-        <v>3843057</v>
+        <v>4895099</v>
       </c>
       <c r="AT65" s="11">
-        <v>4100191</v>
+        <v>5408692</v>
       </c>
       <c r="AU65" s="11">
-        <v>4895099</v>
+        <v>5106600</v>
       </c>
       <c r="AV65" s="11">
-        <v>5408692</v>
+        <v>5535852</v>
       </c>
       <c r="AW65" s="11">
-        <v>5106600</v>
+        <v>6210618</v>
       </c>
       <c r="AX65" s="11">
-        <v>5535852</v>
+        <v>6238454</v>
       </c>
       <c r="AY65" s="11">
-        <v>6210618</v>
+        <v>6130342</v>
       </c>
       <c r="AZ65" s="11">
-        <v>6238454</v>
+        <v>6032746</v>
       </c>
       <c r="BA65" s="11">
-        <v>6130342</v>
+        <v>5748172</v>
       </c>
       <c r="BB65" s="11">
-        <v>6032746</v>
+        <v>5753093</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7747,86 +7747,86 @@
       <c r="AA66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC66" s="13" t="s">
-        <v>58</v>
+      <c r="AB66" s="13">
+        <v>2576995</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>3020099</v>
       </c>
       <c r="AD66" s="13">
-        <v>2576995</v>
+        <v>2804083</v>
       </c>
       <c r="AE66" s="13">
-        <v>3020099</v>
+        <v>3184123</v>
       </c>
       <c r="AF66" s="13">
-        <v>2804083</v>
+        <v>3231496</v>
       </c>
       <c r="AG66" s="13">
-        <v>3184123</v>
+        <v>3274291</v>
       </c>
       <c r="AH66" s="13">
-        <v>3231496</v>
+        <v>3105506</v>
       </c>
       <c r="AI66" s="13">
-        <v>3274291</v>
+        <v>3066117</v>
       </c>
       <c r="AJ66" s="13">
-        <v>3105506</v>
+        <v>4871850</v>
       </c>
       <c r="AK66" s="13">
-        <v>3066117</v>
+        <v>7359046</v>
       </c>
       <c r="AL66" s="13">
-        <v>4871850</v>
+        <v>5046415</v>
       </c>
       <c r="AM66" s="13">
-        <v>7359046</v>
+        <v>5199749</v>
       </c>
       <c r="AN66" s="13">
-        <v>5046415</v>
+        <v>4934891</v>
       </c>
       <c r="AO66" s="13">
-        <v>5199749</v>
+        <v>5066098</v>
       </c>
       <c r="AP66" s="13">
-        <v>4934891</v>
+        <v>5248155</v>
       </c>
       <c r="AQ66" s="13">
-        <v>5066098</v>
+        <v>5266621</v>
       </c>
       <c r="AR66" s="13">
-        <v>5248155</v>
+        <v>5494940</v>
       </c>
       <c r="AS66" s="13">
-        <v>5266621</v>
+        <v>5337486</v>
       </c>
       <c r="AT66" s="13">
-        <v>5494940</v>
+        <v>5567938</v>
       </c>
       <c r="AU66" s="13">
-        <v>5337486</v>
+        <v>6554063</v>
       </c>
       <c r="AV66" s="13">
-        <v>5567938</v>
+        <v>6795964</v>
       </c>
       <c r="AW66" s="13">
-        <v>6554063</v>
+        <v>6970216</v>
       </c>
       <c r="AX66" s="13">
-        <v>6795964</v>
+        <v>6864893</v>
       </c>
       <c r="AY66" s="13">
-        <v>6970216</v>
+        <v>6852326</v>
       </c>
       <c r="AZ66" s="13">
-        <v>6864893</v>
+        <v>7172294</v>
       </c>
       <c r="BA66" s="13">
-        <v>6852326</v>
+        <v>7053467</v>
       </c>
       <c r="BB66" s="13">
-        <v>7172294</v>
+        <v>7264475</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -7969,80 +7969,80 @@
       <c r="AC68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD68" s="11" t="s">
-        <v>58</v>
+      <c r="AD68" s="11">
+        <v>4279821</v>
       </c>
       <c r="AE68" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AF68" s="11">
-        <v>4279821</v>
-      </c>
-      <c r="AG68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH68" s="11">
         <v>3936213</v>
       </c>
-      <c r="AI68" s="11">
+      <c r="AG68" s="11">
         <v>4321260</v>
       </c>
-      <c r="AJ68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK68" s="11" t="s">
-        <v>58</v>
+      <c r="AH68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ68" s="11">
+        <v>4433113</v>
+      </c>
+      <c r="AK68" s="11">
+        <v>7837143</v>
       </c>
       <c r="AL68" s="11">
-        <v>4433113</v>
+        <v>5499777</v>
       </c>
       <c r="AM68" s="11">
-        <v>7837143</v>
+        <v>6210537</v>
       </c>
       <c r="AN68" s="11">
-        <v>5499777</v>
+        <v>7456023</v>
       </c>
       <c r="AO68" s="11">
-        <v>6210537</v>
+        <v>6269070</v>
       </c>
       <c r="AP68" s="11">
-        <v>7456023</v>
+        <v>6452600</v>
       </c>
       <c r="AQ68" s="11">
-        <v>6269070</v>
+        <v>6420343</v>
       </c>
       <c r="AR68" s="11">
-        <v>6452600</v>
+        <v>5990860</v>
       </c>
       <c r="AS68" s="11">
-        <v>6420343</v>
+        <v>6356755</v>
       </c>
       <c r="AT68" s="11">
-        <v>5990860</v>
+        <v>6383497</v>
       </c>
       <c r="AU68" s="11">
-        <v>6356755</v>
+        <v>6500158</v>
       </c>
       <c r="AV68" s="11">
-        <v>6383497</v>
+        <v>6866900</v>
       </c>
       <c r="AW68" s="11">
-        <v>6500158</v>
+        <v>6984100</v>
       </c>
       <c r="AX68" s="11">
-        <v>6866900</v>
+        <v>6632150</v>
       </c>
       <c r="AY68" s="11">
-        <v>6984100</v>
-      </c>
-      <c r="AZ68" s="11">
-        <v>6632150</v>
-      </c>
-      <c r="BA68" s="11">
         <v>5906258</v>
       </c>
-      <c r="BB68" s="11" t="s">
-        <v>58</v>
+      <c r="AZ68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB68" s="11">
+        <v>6379372</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -8122,86 +8122,86 @@
       <c r="AA69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC69" s="13" t="s">
-        <v>58</v>
+      <c r="AB69" s="13">
+        <v>5072809</v>
+      </c>
+      <c r="AC69" s="13">
+        <v>5141115</v>
       </c>
       <c r="AD69" s="13">
-        <v>5072809</v>
+        <v>5879641</v>
       </c>
       <c r="AE69" s="13">
-        <v>5141115</v>
+        <v>6038970</v>
       </c>
       <c r="AF69" s="13">
-        <v>5879641</v>
+        <v>6041701</v>
       </c>
       <c r="AG69" s="13">
-        <v>6038970</v>
+        <v>6068661</v>
       </c>
       <c r="AH69" s="13">
-        <v>6041701</v>
+        <v>5953368</v>
       </c>
       <c r="AI69" s="13">
-        <v>6068661</v>
+        <v>6639900</v>
       </c>
       <c r="AJ69" s="13">
-        <v>5953368</v>
+        <v>6640508</v>
       </c>
       <c r="AK69" s="13">
-        <v>6639900</v>
+        <v>8198020</v>
       </c>
       <c r="AL69" s="13">
-        <v>6640508</v>
+        <v>7334634</v>
       </c>
       <c r="AM69" s="13">
-        <v>8198020</v>
+        <v>8846431</v>
       </c>
       <c r="AN69" s="13">
-        <v>7334634</v>
+        <v>7391374</v>
       </c>
       <c r="AO69" s="13">
-        <v>8846431</v>
+        <v>8381905</v>
       </c>
       <c r="AP69" s="13">
-        <v>7391374</v>
+        <v>6799610</v>
       </c>
       <c r="AQ69" s="13">
-        <v>8381905</v>
+        <v>6580175</v>
       </c>
       <c r="AR69" s="13">
-        <v>6799610</v>
+        <v>6678112</v>
       </c>
       <c r="AS69" s="13">
-        <v>6580175</v>
+        <v>7661458</v>
       </c>
       <c r="AT69" s="13">
-        <v>6678112</v>
+        <v>6832045</v>
       </c>
       <c r="AU69" s="13">
-        <v>7661458</v>
+        <v>6493068</v>
       </c>
       <c r="AV69" s="13">
-        <v>6832045</v>
+        <v>5783971</v>
       </c>
       <c r="AW69" s="13">
-        <v>6493068</v>
+        <v>5802640</v>
       </c>
       <c r="AX69" s="13">
-        <v>5783971</v>
+        <v>5736717</v>
       </c>
       <c r="AY69" s="13">
-        <v>5802640</v>
+        <v>6409259</v>
       </c>
       <c r="AZ69" s="13">
-        <v>5736717</v>
+        <v>6404564</v>
       </c>
       <c r="BA69" s="13">
-        <v>6409259</v>
+        <v>6544846</v>
       </c>
       <c r="BB69" s="13">
-        <v>6404564</v>
+        <v>6667988</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sekord/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekord/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekord\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CA5DF-6DAD-40A6-8494-CA89A01DF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBADEE-67EB-42A6-A98B-B26D22273E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سکرد-سیمان کردستان</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 2 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 4 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 3 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -760,12 +760,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -820,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -989,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1498,95 +1498,95 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>60386</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>56057</v>
       </c>
       <c r="AB11" s="11">
-        <v>60386</v>
+        <v>20406</v>
       </c>
       <c r="AC11" s="11">
-        <v>56057</v>
+        <v>21824</v>
       </c>
       <c r="AD11" s="11">
-        <v>20406</v>
+        <v>26772</v>
       </c>
       <c r="AE11" s="11">
-        <v>21824</v>
+        <v>46784</v>
       </c>
       <c r="AF11" s="11">
-        <v>26772</v>
+        <v>49152</v>
       </c>
       <c r="AG11" s="11">
-        <v>46784</v>
+        <v>44281</v>
       </c>
       <c r="AH11" s="11">
-        <v>49152</v>
+        <v>38245</v>
       </c>
       <c r="AI11" s="11">
-        <v>44281</v>
+        <v>31251</v>
       </c>
       <c r="AJ11" s="11">
-        <v>38245</v>
+        <v>33343</v>
       </c>
       <c r="AK11" s="11">
-        <v>31251</v>
+        <v>45089</v>
       </c>
       <c r="AL11" s="11">
-        <v>33343</v>
+        <v>40727</v>
       </c>
       <c r="AM11" s="11">
-        <v>45089</v>
+        <v>37223</v>
       </c>
       <c r="AN11" s="11">
-        <v>40727</v>
+        <v>23082</v>
       </c>
       <c r="AO11" s="11">
-        <v>37223</v>
+        <v>7600</v>
       </c>
       <c r="AP11" s="11">
-        <v>23082</v>
+        <v>9858</v>
       </c>
       <c r="AQ11" s="11">
-        <v>7600</v>
+        <v>26695</v>
       </c>
       <c r="AR11" s="11">
-        <v>9858</v>
+        <v>41657</v>
       </c>
       <c r="AS11" s="11">
-        <v>26695</v>
+        <v>40650</v>
       </c>
       <c r="AT11" s="11">
-        <v>41657</v>
+        <v>54789</v>
       </c>
       <c r="AU11" s="11">
-        <v>40650</v>
+        <v>48155</v>
       </c>
       <c r="AV11" s="11">
-        <v>54789</v>
+        <v>31005</v>
       </c>
       <c r="AW11" s="11">
-        <v>48155</v>
+        <v>32562</v>
       </c>
       <c r="AX11" s="11">
-        <v>31005</v>
+        <v>47036</v>
       </c>
       <c r="AY11" s="11">
-        <v>32562</v>
+        <v>40757</v>
       </c>
       <c r="AZ11" s="11">
-        <v>47036</v>
+        <v>33880</v>
       </c>
       <c r="BA11" s="11">
-        <v>40757</v>
+        <v>10329</v>
       </c>
       <c r="BB11" s="11">
-        <v>33880</v>
+        <v>14276</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1657,95 +1657,95 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>5545</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>3461</v>
       </c>
       <c r="AB12" s="13">
-        <v>5545</v>
+        <v>4489</v>
       </c>
       <c r="AC12" s="13">
-        <v>3461</v>
+        <v>3967</v>
       </c>
       <c r="AD12" s="13">
-        <v>4489</v>
+        <v>3161</v>
       </c>
       <c r="AE12" s="13">
-        <v>3967</v>
+        <v>4983</v>
       </c>
       <c r="AF12" s="13">
-        <v>3161</v>
+        <v>4747</v>
       </c>
       <c r="AG12" s="13">
-        <v>4983</v>
+        <v>5498</v>
       </c>
       <c r="AH12" s="13">
-        <v>4747</v>
+        <v>4881</v>
       </c>
       <c r="AI12" s="13">
-        <v>5498</v>
+        <v>2138</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4881</v>
+        <v>3450</v>
       </c>
       <c r="AK12" s="13">
-        <v>2138</v>
+        <v>3342</v>
       </c>
       <c r="AL12" s="13">
-        <v>3450</v>
+        <v>4599</v>
       </c>
       <c r="AM12" s="13">
-        <v>3342</v>
+        <v>4167</v>
       </c>
       <c r="AN12" s="13">
-        <v>4599</v>
+        <v>3907</v>
       </c>
       <c r="AO12" s="13">
-        <v>4167</v>
+        <v>1430</v>
       </c>
       <c r="AP12" s="13">
-        <v>3907</v>
+        <v>1999</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1430</v>
+        <v>3978</v>
       </c>
       <c r="AR12" s="13">
-        <v>1999</v>
+        <v>2825</v>
       </c>
       <c r="AS12" s="13">
-        <v>3978</v>
+        <v>4030</v>
       </c>
       <c r="AT12" s="13">
-        <v>2825</v>
+        <v>5301</v>
       </c>
       <c r="AU12" s="13">
-        <v>4030</v>
+        <v>3599</v>
       </c>
       <c r="AV12" s="13">
-        <v>5301</v>
+        <v>5415</v>
       </c>
       <c r="AW12" s="13">
-        <v>3599</v>
+        <v>5394</v>
       </c>
       <c r="AX12" s="13">
-        <v>5415</v>
+        <v>4080</v>
       </c>
       <c r="AY12" s="13">
-        <v>5394</v>
+        <v>4928</v>
       </c>
       <c r="AZ12" s="13">
-        <v>4080</v>
+        <v>3706</v>
       </c>
       <c r="BA12" s="13">
-        <v>4928</v>
+        <v>3908</v>
       </c>
       <c r="BB12" s="13">
-        <v>3706</v>
+        <v>3779</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
@@ -1815,94 +1815,94 @@
         <v>0</v>
       </c>
       <c r="Z13" s="15">
-        <v>0</v>
+        <v>65931</v>
       </c>
       <c r="AA13" s="15">
-        <v>0</v>
+        <v>59518</v>
       </c>
       <c r="AB13" s="15">
-        <v>65931</v>
+        <v>24895</v>
       </c>
       <c r="AC13" s="15">
-        <v>59518</v>
+        <v>25791</v>
       </c>
       <c r="AD13" s="15">
-        <v>24895</v>
+        <v>29933</v>
       </c>
       <c r="AE13" s="15">
-        <v>25791</v>
+        <v>51767</v>
       </c>
       <c r="AF13" s="15">
-        <v>29933</v>
+        <v>53899</v>
       </c>
       <c r="AG13" s="15">
-        <v>51767</v>
+        <v>49779</v>
       </c>
       <c r="AH13" s="15">
-        <v>53899</v>
+        <v>43126</v>
       </c>
       <c r="AI13" s="15">
-        <v>49779</v>
+        <v>33389</v>
       </c>
       <c r="AJ13" s="15">
-        <v>43126</v>
+        <v>36793</v>
       </c>
       <c r="AK13" s="15">
-        <v>33389</v>
+        <v>48431</v>
       </c>
       <c r="AL13" s="15">
-        <v>36793</v>
+        <v>45326</v>
       </c>
       <c r="AM13" s="15">
-        <v>48431</v>
+        <v>41390</v>
       </c>
       <c r="AN13" s="15">
-        <v>45326</v>
+        <v>26989</v>
       </c>
       <c r="AO13" s="15">
-        <v>41390</v>
+        <v>9030</v>
       </c>
       <c r="AP13" s="15">
-        <v>26989</v>
+        <v>11857</v>
       </c>
       <c r="AQ13" s="15">
-        <v>9030</v>
+        <v>30673</v>
       </c>
       <c r="AR13" s="15">
-        <v>11857</v>
+        <v>44482</v>
       </c>
       <c r="AS13" s="15">
-        <v>30673</v>
+        <v>44680</v>
       </c>
       <c r="AT13" s="15">
-        <v>44482</v>
+        <v>60090</v>
       </c>
       <c r="AU13" s="15">
-        <v>44680</v>
+        <v>51754</v>
       </c>
       <c r="AV13" s="15">
-        <v>60090</v>
+        <v>36420</v>
       </c>
       <c r="AW13" s="15">
-        <v>51754</v>
+        <v>37956</v>
       </c>
       <c r="AX13" s="15">
-        <v>36420</v>
+        <v>51116</v>
       </c>
       <c r="AY13" s="15">
-        <v>37956</v>
+        <v>45685</v>
       </c>
       <c r="AZ13" s="15">
-        <v>51116</v>
+        <v>37586</v>
       </c>
       <c r="BA13" s="15">
-        <v>45685</v>
+        <v>14237</v>
       </c>
       <c r="BB13" s="15">
-        <v>37586</v>
+        <v>18055</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2030,95 +2030,95 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
       </c>
       <c r="AB15" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AC15" s="11">
         <v>0</v>
       </c>
       <c r="AD15" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AE15" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AF15" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AI15" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AJ15" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AK15" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AL15" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AM15" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AN15" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AO15" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AP15" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AQ15" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AR15" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AS15" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AT15" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AU15" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AV15" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AW15" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AX15" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
       <c r="BA15" s="11">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="BB15" s="11">
-        <v>36969</v>
+        <v>15581</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>59</v>
       </c>
@@ -2189,95 +2189,95 @@
       <c r="Y16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>58</v>
+      <c r="Z16" s="13">
+        <v>1552</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>1722</v>
       </c>
       <c r="AB16" s="13">
-        <v>1552</v>
+        <v>781</v>
       </c>
       <c r="AC16" s="13">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AD16" s="13">
-        <v>781</v>
+        <v>1223</v>
       </c>
       <c r="AE16" s="13">
-        <v>1437</v>
+        <v>1471</v>
       </c>
       <c r="AF16" s="13">
-        <v>1223</v>
+        <v>579</v>
       </c>
       <c r="AG16" s="13">
-        <v>1471</v>
+        <v>1594</v>
       </c>
       <c r="AH16" s="13">
-        <v>579</v>
+        <v>1338</v>
       </c>
       <c r="AI16" s="13">
-        <v>1594</v>
+        <v>808</v>
       </c>
       <c r="AJ16" s="13">
-        <v>1338</v>
+        <v>1025</v>
       </c>
       <c r="AK16" s="13">
-        <v>808</v>
+        <v>2494</v>
       </c>
       <c r="AL16" s="13">
-        <v>1025</v>
+        <v>1252</v>
       </c>
       <c r="AM16" s="13">
-        <v>2494</v>
+        <v>2100</v>
       </c>
       <c r="AN16" s="13">
-        <v>1252</v>
+        <v>2051</v>
       </c>
       <c r="AO16" s="13">
-        <v>2100</v>
+        <v>343</v>
       </c>
       <c r="AP16" s="13">
-        <v>2051</v>
+        <v>233</v>
       </c>
       <c r="AQ16" s="13">
-        <v>343</v>
+        <v>1344</v>
       </c>
       <c r="AR16" s="13">
-        <v>233</v>
+        <v>1941</v>
       </c>
       <c r="AS16" s="13">
-        <v>1344</v>
+        <v>2164</v>
       </c>
       <c r="AT16" s="13">
-        <v>1941</v>
+        <v>2458</v>
       </c>
       <c r="AU16" s="13">
-        <v>2164</v>
+        <v>1591</v>
       </c>
       <c r="AV16" s="13">
-        <v>2458</v>
+        <v>1261</v>
       </c>
       <c r="AW16" s="13">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="AX16" s="13">
-        <v>1261</v>
+        <v>1928</v>
       </c>
       <c r="AY16" s="13">
-        <v>1620</v>
+        <v>747</v>
       </c>
       <c r="AZ16" s="13">
-        <v>1928</v>
+        <v>1009</v>
       </c>
       <c r="BA16" s="13">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="BB16" s="13">
-        <v>1009</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>63</v>
       </c>
@@ -2347,94 +2347,94 @@
         <v>0</v>
       </c>
       <c r="Z17" s="15">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="AA17" s="15">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="AB17" s="15">
-        <v>1552</v>
+        <v>14890</v>
       </c>
       <c r="AC17" s="15">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AD17" s="15">
-        <v>14890</v>
+        <v>12103</v>
       </c>
       <c r="AE17" s="15">
-        <v>1437</v>
+        <v>57488</v>
       </c>
       <c r="AF17" s="15">
-        <v>12103</v>
+        <v>579</v>
       </c>
       <c r="AG17" s="15">
-        <v>57488</v>
+        <v>1594</v>
       </c>
       <c r="AH17" s="15">
-        <v>579</v>
+        <v>45592</v>
       </c>
       <c r="AI17" s="15">
-        <v>1594</v>
+        <v>25830</v>
       </c>
       <c r="AJ17" s="15">
-        <v>45592</v>
+        <v>34596</v>
       </c>
       <c r="AK17" s="15">
-        <v>25830</v>
+        <v>41841</v>
       </c>
       <c r="AL17" s="15">
-        <v>34596</v>
+        <v>22047</v>
       </c>
       <c r="AM17" s="15">
-        <v>41841</v>
+        <v>33865</v>
       </c>
       <c r="AN17" s="15">
-        <v>22047</v>
+        <v>48454</v>
       </c>
       <c r="AO17" s="15">
-        <v>33865</v>
+        <v>15464</v>
       </c>
       <c r="AP17" s="15">
-        <v>48454</v>
+        <v>55263</v>
       </c>
       <c r="AQ17" s="15">
-        <v>15464</v>
+        <v>67821</v>
       </c>
       <c r="AR17" s="15">
-        <v>55263</v>
+        <v>52077</v>
       </c>
       <c r="AS17" s="15">
-        <v>67821</v>
+        <v>30669</v>
       </c>
       <c r="AT17" s="15">
-        <v>52077</v>
+        <v>12458</v>
       </c>
       <c r="AU17" s="15">
-        <v>30669</v>
+        <v>21591</v>
       </c>
       <c r="AV17" s="15">
-        <v>12458</v>
+        <v>21261</v>
       </c>
       <c r="AW17" s="15">
-        <v>21591</v>
+        <v>5439</v>
       </c>
       <c r="AX17" s="15">
-        <v>21261</v>
+        <v>1928</v>
       </c>
       <c r="AY17" s="15">
-        <v>5439</v>
+        <v>747</v>
       </c>
       <c r="AZ17" s="15">
-        <v>1928</v>
+        <v>37978</v>
       </c>
       <c r="BA17" s="15">
-        <v>747</v>
+        <v>10811</v>
       </c>
       <c r="BB17" s="15">
-        <v>37978</v>
+        <v>15607</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="BA18" s="17"/>
       <c r="BB18" s="17"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2560,11 +2560,11 @@
       <c r="Y19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>58</v>
+      <c r="Z19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>0</v>
       </c>
       <c r="AB19" s="15">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>66</v>
       </c>
@@ -2718,94 +2718,94 @@
         <v>0</v>
       </c>
       <c r="Z20" s="19">
-        <v>0</v>
+        <v>67483</v>
       </c>
       <c r="AA20" s="19">
-        <v>0</v>
+        <v>61240</v>
       </c>
       <c r="AB20" s="19">
-        <v>67483</v>
+        <v>39785</v>
       </c>
       <c r="AC20" s="19">
-        <v>61240</v>
+        <v>27228</v>
       </c>
       <c r="AD20" s="19">
-        <v>39785</v>
+        <v>42036</v>
       </c>
       <c r="AE20" s="19">
-        <v>27228</v>
+        <v>109255</v>
       </c>
       <c r="AF20" s="19">
-        <v>42036</v>
+        <v>54478</v>
       </c>
       <c r="AG20" s="19">
-        <v>109255</v>
+        <v>51373</v>
       </c>
       <c r="AH20" s="19">
-        <v>54478</v>
+        <v>88718</v>
       </c>
       <c r="AI20" s="19">
-        <v>51373</v>
+        <v>59219</v>
       </c>
       <c r="AJ20" s="19">
-        <v>88718</v>
+        <v>71389</v>
       </c>
       <c r="AK20" s="19">
-        <v>59219</v>
+        <v>90272</v>
       </c>
       <c r="AL20" s="19">
-        <v>71389</v>
+        <v>67373</v>
       </c>
       <c r="AM20" s="19">
-        <v>90272</v>
+        <v>75255</v>
       </c>
       <c r="AN20" s="19">
-        <v>67373</v>
+        <v>75443</v>
       </c>
       <c r="AO20" s="19">
-        <v>75255</v>
+        <v>24494</v>
       </c>
       <c r="AP20" s="19">
-        <v>75443</v>
+        <v>67120</v>
       </c>
       <c r="AQ20" s="19">
-        <v>24494</v>
+        <v>98494</v>
       </c>
       <c r="AR20" s="19">
-        <v>67120</v>
+        <v>96559</v>
       </c>
       <c r="AS20" s="19">
-        <v>98494</v>
+        <v>75349</v>
       </c>
       <c r="AT20" s="19">
-        <v>96559</v>
+        <v>72548</v>
       </c>
       <c r="AU20" s="19">
-        <v>75349</v>
+        <v>73345</v>
       </c>
       <c r="AV20" s="19">
-        <v>72548</v>
+        <v>57681</v>
       </c>
       <c r="AW20" s="19">
-        <v>73345</v>
+        <v>43395</v>
       </c>
       <c r="AX20" s="19">
-        <v>57681</v>
+        <v>53044</v>
       </c>
       <c r="AY20" s="19">
-        <v>43395</v>
+        <v>46432</v>
       </c>
       <c r="AZ20" s="19">
-        <v>53044</v>
+        <v>75564</v>
       </c>
       <c r="BA20" s="19">
-        <v>46432</v>
+        <v>25048</v>
       </c>
       <c r="BB20" s="19">
-        <v>75564</v>
+        <v>33662</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2860,7 +2860,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2915,7 +2915,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2970,7 +2970,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>67</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3182,7 +3182,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>68</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>56</v>
       </c>
@@ -3310,95 +3310,95 @@
       <c r="Y27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>58</v>
+      <c r="Z27" s="11">
+        <v>62774</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>51932</v>
       </c>
       <c r="AB27" s="11">
-        <v>62774</v>
+        <v>25581</v>
       </c>
       <c r="AC27" s="11">
-        <v>51932</v>
+        <v>21938</v>
       </c>
       <c r="AD27" s="11">
-        <v>25581</v>
+        <v>21134</v>
       </c>
       <c r="AE27" s="11">
-        <v>21938</v>
+        <v>47307</v>
       </c>
       <c r="AF27" s="11">
-        <v>21134</v>
+        <v>47330</v>
       </c>
       <c r="AG27" s="11">
-        <v>47307</v>
+        <v>49149</v>
       </c>
       <c r="AH27" s="11">
-        <v>47330</v>
+        <v>40285</v>
       </c>
       <c r="AI27" s="11">
-        <v>49149</v>
+        <v>25526</v>
       </c>
       <c r="AJ27" s="11">
-        <v>40285</v>
+        <v>36204</v>
       </c>
       <c r="AK27" s="11">
-        <v>25526</v>
+        <v>48527</v>
       </c>
       <c r="AL27" s="11">
-        <v>36204</v>
+        <v>40867</v>
       </c>
       <c r="AM27" s="11">
-        <v>48527</v>
+        <v>31311</v>
       </c>
       <c r="AN27" s="11">
-        <v>40867</v>
+        <v>24699</v>
       </c>
       <c r="AO27" s="11">
-        <v>31311</v>
+        <v>14158</v>
       </c>
       <c r="AP27" s="11">
-        <v>24699</v>
+        <v>14113</v>
       </c>
       <c r="AQ27" s="11">
-        <v>14158</v>
+        <v>27893</v>
       </c>
       <c r="AR27" s="11">
-        <v>14113</v>
+        <v>31202</v>
       </c>
       <c r="AS27" s="11">
-        <v>27893</v>
+        <v>48443</v>
       </c>
       <c r="AT27" s="11">
-        <v>31202</v>
+        <v>54321</v>
       </c>
       <c r="AU27" s="11">
-        <v>48443</v>
+        <v>41891</v>
       </c>
       <c r="AV27" s="11">
-        <v>54321</v>
+        <v>31461</v>
       </c>
       <c r="AW27" s="11">
-        <v>41891</v>
+        <v>38913</v>
       </c>
       <c r="AX27" s="11">
-        <v>31461</v>
+        <v>39577</v>
       </c>
       <c r="AY27" s="11">
-        <v>38913</v>
+        <v>39523</v>
       </c>
       <c r="AZ27" s="11">
-        <v>39577</v>
+        <v>30793</v>
       </c>
       <c r="BA27" s="11">
-        <v>39523</v>
+        <v>12406</v>
       </c>
       <c r="BB27" s="11">
-        <v>30793</v>
+        <v>14632</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>59</v>
       </c>
@@ -3469,95 +3469,95 @@
       <c r="Y28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>58</v>
+      <c r="Z28" s="13">
+        <v>4825</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>3632</v>
       </c>
       <c r="AB28" s="13">
-        <v>4825</v>
+        <v>5829</v>
       </c>
       <c r="AC28" s="13">
-        <v>3632</v>
+        <v>3905</v>
       </c>
       <c r="AD28" s="13">
-        <v>5829</v>
+        <v>3175</v>
       </c>
       <c r="AE28" s="13">
-        <v>3905</v>
+        <v>4652</v>
       </c>
       <c r="AF28" s="13">
-        <v>3175</v>
+        <v>3469</v>
       </c>
       <c r="AG28" s="13">
-        <v>4652</v>
+        <v>7154</v>
       </c>
       <c r="AH28" s="13">
-        <v>3469</v>
+        <v>4643</v>
       </c>
       <c r="AI28" s="13">
-        <v>7154</v>
+        <v>2852</v>
       </c>
       <c r="AJ28" s="13">
-        <v>4643</v>
+        <v>4072</v>
       </c>
       <c r="AK28" s="13">
-        <v>2852</v>
+        <v>3980</v>
       </c>
       <c r="AL28" s="13">
-        <v>4072</v>
+        <v>5437</v>
       </c>
       <c r="AM28" s="13">
-        <v>3980</v>
+        <v>4690</v>
       </c>
       <c r="AN28" s="13">
-        <v>5437</v>
+        <v>4066</v>
       </c>
       <c r="AO28" s="13">
-        <v>4690</v>
+        <v>1474</v>
       </c>
       <c r="AP28" s="13">
-        <v>4066</v>
+        <v>1087</v>
       </c>
       <c r="AQ28" s="13">
-        <v>1474</v>
+        <v>3532</v>
       </c>
       <c r="AR28" s="13">
-        <v>1087</v>
+        <v>3356</v>
       </c>
       <c r="AS28" s="13">
-        <v>3532</v>
+        <v>4689</v>
       </c>
       <c r="AT28" s="13">
-        <v>3356</v>
+        <v>5401</v>
       </c>
       <c r="AU28" s="13">
-        <v>4689</v>
+        <v>4667</v>
       </c>
       <c r="AV28" s="13">
-        <v>5401</v>
+        <v>4848</v>
       </c>
       <c r="AW28" s="13">
-        <v>4667</v>
+        <v>6406</v>
       </c>
       <c r="AX28" s="13">
-        <v>4848</v>
+        <v>4620</v>
       </c>
       <c r="AY28" s="13">
-        <v>6406</v>
+        <v>5106</v>
       </c>
       <c r="AZ28" s="13">
-        <v>4620</v>
+        <v>4197</v>
       </c>
       <c r="BA28" s="13">
-        <v>5106</v>
+        <v>3726</v>
       </c>
       <c r="BB28" s="13">
-        <v>4197</v>
+        <v>4681</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>69</v>
       </c>
@@ -3627,94 +3627,94 @@
         <v>0</v>
       </c>
       <c r="Z29" s="15">
-        <v>0</v>
+        <v>67599</v>
       </c>
       <c r="AA29" s="15">
-        <v>0</v>
+        <v>55564</v>
       </c>
       <c r="AB29" s="15">
-        <v>67599</v>
+        <v>31410</v>
       </c>
       <c r="AC29" s="15">
-        <v>55564</v>
+        <v>25843</v>
       </c>
       <c r="AD29" s="15">
-        <v>31410</v>
+        <v>24309</v>
       </c>
       <c r="AE29" s="15">
-        <v>25843</v>
+        <v>51959</v>
       </c>
       <c r="AF29" s="15">
-        <v>24309</v>
+        <v>50799</v>
       </c>
       <c r="AG29" s="15">
-        <v>51959</v>
+        <v>56303</v>
       </c>
       <c r="AH29" s="15">
-        <v>50799</v>
+        <v>44928</v>
       </c>
       <c r="AI29" s="15">
-        <v>56303</v>
+        <v>28378</v>
       </c>
       <c r="AJ29" s="15">
-        <v>44928</v>
+        <v>40276</v>
       </c>
       <c r="AK29" s="15">
-        <v>28378</v>
+        <v>52507</v>
       </c>
       <c r="AL29" s="15">
-        <v>40276</v>
+        <v>46304</v>
       </c>
       <c r="AM29" s="15">
-        <v>52507</v>
+        <v>36001</v>
       </c>
       <c r="AN29" s="15">
-        <v>46304</v>
+        <v>28765</v>
       </c>
       <c r="AO29" s="15">
-        <v>36001</v>
+        <v>15632</v>
       </c>
       <c r="AP29" s="15">
-        <v>28765</v>
+        <v>15200</v>
       </c>
       <c r="AQ29" s="15">
-        <v>15632</v>
+        <v>31425</v>
       </c>
       <c r="AR29" s="15">
-        <v>15200</v>
+        <v>34558</v>
       </c>
       <c r="AS29" s="15">
-        <v>31425</v>
+        <v>53132</v>
       </c>
       <c r="AT29" s="15">
-        <v>34558</v>
+        <v>59722</v>
       </c>
       <c r="AU29" s="15">
-        <v>53132</v>
+        <v>46558</v>
       </c>
       <c r="AV29" s="15">
-        <v>59722</v>
+        <v>36309</v>
       </c>
       <c r="AW29" s="15">
-        <v>46558</v>
+        <v>45319</v>
       </c>
       <c r="AX29" s="15">
-        <v>36309</v>
+        <v>44197</v>
       </c>
       <c r="AY29" s="15">
-        <v>45319</v>
+        <v>44629</v>
       </c>
       <c r="AZ29" s="15">
-        <v>44197</v>
+        <v>34990</v>
       </c>
       <c r="BA29" s="15">
-        <v>44629</v>
+        <v>16132</v>
       </c>
       <c r="BB29" s="15">
-        <v>34990</v>
+        <v>19313</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>70</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>62</v>
       </c>
@@ -3842,95 +3842,95 @@
       <c r="Y31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA31" s="11" t="s">
-        <v>58</v>
+      <c r="Z31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>0</v>
       </c>
       <c r="AB31" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AC31" s="11">
         <v>0</v>
       </c>
       <c r="AD31" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AE31" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AF31" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AI31" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AJ31" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AK31" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AL31" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AM31" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AN31" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AO31" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AP31" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AQ31" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AR31" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AS31" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AT31" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AU31" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AV31" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AW31" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AX31" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
       <c r="BA31" s="11">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="BB31" s="11">
-        <v>36969</v>
+        <v>15581</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4001,95 +4001,95 @@
       <c r="Y32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA32" s="13" t="s">
-        <v>58</v>
+      <c r="Z32" s="13">
+        <v>1552</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>1722</v>
       </c>
       <c r="AB32" s="13">
-        <v>1552</v>
+        <v>781</v>
       </c>
       <c r="AC32" s="13">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AD32" s="13">
-        <v>781</v>
+        <v>1223</v>
       </c>
       <c r="AE32" s="13">
-        <v>1437</v>
+        <v>1471</v>
       </c>
       <c r="AF32" s="13">
-        <v>1223</v>
+        <v>579</v>
       </c>
       <c r="AG32" s="13">
-        <v>1471</v>
+        <v>1594</v>
       </c>
       <c r="AH32" s="13">
-        <v>579</v>
+        <v>1338</v>
       </c>
       <c r="AI32" s="13">
-        <v>1594</v>
+        <v>808</v>
       </c>
       <c r="AJ32" s="13">
-        <v>1338</v>
+        <v>1025</v>
       </c>
       <c r="AK32" s="13">
-        <v>808</v>
+        <v>2494</v>
       </c>
       <c r="AL32" s="13">
-        <v>1025</v>
+        <v>1252</v>
       </c>
       <c r="AM32" s="13">
-        <v>2494</v>
+        <v>2100</v>
       </c>
       <c r="AN32" s="13">
-        <v>1252</v>
+        <v>2051</v>
       </c>
       <c r="AO32" s="13">
-        <v>2100</v>
+        <v>343</v>
       </c>
       <c r="AP32" s="13">
-        <v>2051</v>
+        <v>233</v>
       </c>
       <c r="AQ32" s="13">
-        <v>343</v>
+        <v>1344</v>
       </c>
       <c r="AR32" s="13">
-        <v>233</v>
+        <v>1941</v>
       </c>
       <c r="AS32" s="13">
-        <v>1344</v>
+        <v>2164</v>
       </c>
       <c r="AT32" s="13">
-        <v>1941</v>
+        <v>2458</v>
       </c>
       <c r="AU32" s="13">
-        <v>2164</v>
+        <v>1591</v>
       </c>
       <c r="AV32" s="13">
-        <v>2458</v>
+        <v>1261</v>
       </c>
       <c r="AW32" s="13">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="AX32" s="13">
-        <v>1261</v>
+        <v>1928</v>
       </c>
       <c r="AY32" s="13">
-        <v>1620</v>
+        <v>747</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1928</v>
+        <v>1009</v>
       </c>
       <c r="BA32" s="13">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="BB32" s="13">
-        <v>1009</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>71</v>
       </c>
@@ -4159,94 +4159,94 @@
         <v>0</v>
       </c>
       <c r="Z33" s="15">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="AA33" s="15">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="AB33" s="15">
-        <v>1552</v>
+        <v>14890</v>
       </c>
       <c r="AC33" s="15">
-        <v>1722</v>
+        <v>1437</v>
       </c>
       <c r="AD33" s="15">
-        <v>14890</v>
+        <v>12103</v>
       </c>
       <c r="AE33" s="15">
-        <v>1437</v>
+        <v>57488</v>
       </c>
       <c r="AF33" s="15">
-        <v>12103</v>
+        <v>579</v>
       </c>
       <c r="AG33" s="15">
-        <v>57488</v>
+        <v>1594</v>
       </c>
       <c r="AH33" s="15">
-        <v>579</v>
+        <v>45592</v>
       </c>
       <c r="AI33" s="15">
-        <v>1594</v>
+        <v>25830</v>
       </c>
       <c r="AJ33" s="15">
-        <v>45592</v>
+        <v>34596</v>
       </c>
       <c r="AK33" s="15">
-        <v>25830</v>
+        <v>41841</v>
       </c>
       <c r="AL33" s="15">
-        <v>34596</v>
+        <v>22047</v>
       </c>
       <c r="AM33" s="15">
-        <v>41841</v>
+        <v>33865</v>
       </c>
       <c r="AN33" s="15">
-        <v>22047</v>
+        <v>48454</v>
       </c>
       <c r="AO33" s="15">
-        <v>33865</v>
+        <v>15464</v>
       </c>
       <c r="AP33" s="15">
-        <v>48454</v>
+        <v>55263</v>
       </c>
       <c r="AQ33" s="15">
-        <v>15464</v>
+        <v>67821</v>
       </c>
       <c r="AR33" s="15">
-        <v>55263</v>
+        <v>52077</v>
       </c>
       <c r="AS33" s="15">
-        <v>67821</v>
+        <v>30669</v>
       </c>
       <c r="AT33" s="15">
-        <v>52077</v>
+        <v>12458</v>
       </c>
       <c r="AU33" s="15">
-        <v>30669</v>
+        <v>21591</v>
       </c>
       <c r="AV33" s="15">
-        <v>12458</v>
+        <v>21261</v>
       </c>
       <c r="AW33" s="15">
-        <v>21591</v>
+        <v>5439</v>
       </c>
       <c r="AX33" s="15">
-        <v>21261</v>
+        <v>1928</v>
       </c>
       <c r="AY33" s="15">
-        <v>5439</v>
+        <v>747</v>
       </c>
       <c r="AZ33" s="15">
-        <v>1928</v>
+        <v>37978</v>
       </c>
       <c r="BA33" s="15">
-        <v>747</v>
+        <v>10811</v>
       </c>
       <c r="BB33" s="15">
-        <v>37978</v>
+        <v>15607</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>64</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>65</v>
       </c>
@@ -4372,11 +4372,11 @@
       <c r="Y35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA35" s="15" t="s">
-        <v>58</v>
+      <c r="Z35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>0</v>
       </c>
       <c r="AB35" s="15">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
@@ -4586,11 +4586,11 @@
       <c r="Y37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA37" s="15" t="s">
-        <v>58</v>
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
       </c>
       <c r="AB37" s="15">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>66</v>
       </c>
@@ -4744,94 +4744,94 @@
         <v>0</v>
       </c>
       <c r="Z38" s="19">
-        <v>0</v>
+        <v>69151</v>
       </c>
       <c r="AA38" s="19">
-        <v>0</v>
+        <v>57286</v>
       </c>
       <c r="AB38" s="19">
-        <v>69151</v>
+        <v>46300</v>
       </c>
       <c r="AC38" s="19">
-        <v>57286</v>
+        <v>27280</v>
       </c>
       <c r="AD38" s="19">
-        <v>46300</v>
+        <v>36412</v>
       </c>
       <c r="AE38" s="19">
-        <v>27280</v>
+        <v>109447</v>
       </c>
       <c r="AF38" s="19">
-        <v>36412</v>
+        <v>51378</v>
       </c>
       <c r="AG38" s="19">
-        <v>109447</v>
+        <v>57897</v>
       </c>
       <c r="AH38" s="19">
-        <v>51378</v>
+        <v>90520</v>
       </c>
       <c r="AI38" s="19">
-        <v>57897</v>
+        <v>54208</v>
       </c>
       <c r="AJ38" s="19">
-        <v>90520</v>
+        <v>74872</v>
       </c>
       <c r="AK38" s="19">
-        <v>54208</v>
+        <v>94348</v>
       </c>
       <c r="AL38" s="19">
-        <v>74872</v>
+        <v>68351</v>
       </c>
       <c r="AM38" s="19">
-        <v>94348</v>
+        <v>69866</v>
       </c>
       <c r="AN38" s="19">
-        <v>68351</v>
+        <v>77219</v>
       </c>
       <c r="AO38" s="19">
-        <v>69866</v>
+        <v>31096</v>
       </c>
       <c r="AP38" s="19">
-        <v>77219</v>
+        <v>70463</v>
       </c>
       <c r="AQ38" s="19">
-        <v>31096</v>
+        <v>99246</v>
       </c>
       <c r="AR38" s="19">
-        <v>70463</v>
+        <v>86635</v>
       </c>
       <c r="AS38" s="19">
-        <v>99246</v>
+        <v>83801</v>
       </c>
       <c r="AT38" s="19">
-        <v>86635</v>
+        <v>72180</v>
       </c>
       <c r="AU38" s="19">
-        <v>83801</v>
+        <v>68149</v>
       </c>
       <c r="AV38" s="19">
-        <v>72180</v>
+        <v>57570</v>
       </c>
       <c r="AW38" s="19">
-        <v>68149</v>
+        <v>50758</v>
       </c>
       <c r="AX38" s="19">
-        <v>57570</v>
+        <v>46125</v>
       </c>
       <c r="AY38" s="19">
-        <v>50758</v>
+        <v>45376</v>
       </c>
       <c r="AZ38" s="19">
-        <v>46125</v>
+        <v>72968</v>
       </c>
       <c r="BA38" s="19">
-        <v>45376</v>
+        <v>26943</v>
       </c>
       <c r="BB38" s="19">
-        <v>72968</v>
+        <v>34920</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4886,7 +4886,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4941,7 +4941,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4996,7 +4996,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>74</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5208,7 +5208,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5336,95 +5336,95 @@
       <c r="Y45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>58</v>
+      <c r="Z45" s="11">
+        <v>165672</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>140378</v>
       </c>
       <c r="AB45" s="11">
-        <v>165672</v>
+        <v>64842</v>
       </c>
       <c r="AC45" s="11">
-        <v>140378</v>
+        <v>54885</v>
       </c>
       <c r="AD45" s="11">
-        <v>64842</v>
+        <v>55580</v>
       </c>
       <c r="AE45" s="11">
-        <v>54885</v>
+        <v>123875</v>
       </c>
       <c r="AF45" s="11">
-        <v>55580</v>
+        <v>124775</v>
       </c>
       <c r="AG45" s="11">
-        <v>123875</v>
+        <v>181996</v>
       </c>
       <c r="AH45" s="11">
-        <v>124775</v>
+        <v>148374</v>
       </c>
       <c r="AI45" s="11">
-        <v>181996</v>
+        <v>94153</v>
       </c>
       <c r="AJ45" s="11">
-        <v>148374</v>
+        <v>223673</v>
       </c>
       <c r="AK45" s="11">
-        <v>94153</v>
+        <v>262463</v>
       </c>
       <c r="AL45" s="11">
-        <v>223673</v>
+        <v>180814</v>
       </c>
       <c r="AM45" s="11">
-        <v>262463</v>
+        <v>130491</v>
       </c>
       <c r="AN45" s="11">
-        <v>180814</v>
+        <v>100132</v>
       </c>
       <c r="AO45" s="11">
-        <v>130491</v>
+        <v>54410</v>
       </c>
       <c r="AP45" s="11">
-        <v>100132</v>
+        <v>57866</v>
       </c>
       <c r="AQ45" s="11">
-        <v>54410</v>
+        <v>136539</v>
       </c>
       <c r="AR45" s="11">
-        <v>57866</v>
+        <v>168762</v>
       </c>
       <c r="AS45" s="11">
-        <v>136539</v>
+        <v>247379</v>
       </c>
       <c r="AT45" s="11">
-        <v>168762</v>
+        <v>300713</v>
       </c>
       <c r="AU45" s="11">
-        <v>247379</v>
+        <v>260169</v>
       </c>
       <c r="AV45" s="11">
-        <v>300713</v>
+        <v>196268</v>
       </c>
       <c r="AW45" s="11">
-        <v>260169</v>
+        <v>238550</v>
       </c>
       <c r="AX45" s="11">
-        <v>196268</v>
+        <v>238758</v>
       </c>
       <c r="AY45" s="11">
-        <v>238550</v>
+        <v>227185</v>
       </c>
       <c r="AZ45" s="11">
-        <v>238758</v>
+        <v>177155</v>
       </c>
       <c r="BA45" s="11">
-        <v>227185</v>
+        <v>72172</v>
       </c>
       <c r="BB45" s="11">
-        <v>177155</v>
+        <v>84220</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
@@ -5495,95 +5495,95 @@
       <c r="Y46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>58</v>
+      <c r="Z46" s="13">
+        <v>12434</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>10969</v>
       </c>
       <c r="AB46" s="13">
+        <v>16345</v>
+      </c>
+      <c r="AC46" s="13">
         <v>12434</v>
       </c>
-      <c r="AC46" s="13">
-        <v>10969</v>
-      </c>
       <c r="AD46" s="13">
-        <v>16345</v>
+        <v>10260</v>
       </c>
       <c r="AE46" s="13">
-        <v>12434</v>
+        <v>15232</v>
       </c>
       <c r="AF46" s="13">
-        <v>10260</v>
+        <v>10773</v>
       </c>
       <c r="AG46" s="13">
-        <v>15232</v>
+        <v>21935</v>
       </c>
       <c r="AH46" s="13">
-        <v>10773</v>
+        <v>22620</v>
       </c>
       <c r="AI46" s="13">
-        <v>21935</v>
+        <v>20988</v>
       </c>
       <c r="AJ46" s="13">
-        <v>22620</v>
+        <v>20549</v>
       </c>
       <c r="AK46" s="13">
-        <v>20988</v>
+        <v>20695</v>
       </c>
       <c r="AL46" s="13">
-        <v>20549</v>
+        <v>26831</v>
       </c>
       <c r="AM46" s="13">
-        <v>20695</v>
+        <v>23760</v>
       </c>
       <c r="AN46" s="13">
-        <v>26831</v>
+        <v>21339</v>
       </c>
       <c r="AO46" s="13">
-        <v>23760</v>
+        <v>7763</v>
       </c>
       <c r="AP46" s="13">
-        <v>21339</v>
+        <v>5973</v>
       </c>
       <c r="AQ46" s="13">
-        <v>7763</v>
+        <v>18852</v>
       </c>
       <c r="AR46" s="13">
-        <v>5973</v>
+        <v>18686</v>
       </c>
       <c r="AS46" s="13">
-        <v>18852</v>
+        <v>30732</v>
       </c>
       <c r="AT46" s="13">
-        <v>18686</v>
+        <v>36705</v>
       </c>
       <c r="AU46" s="13">
-        <v>30732</v>
+        <v>32530</v>
       </c>
       <c r="AV46" s="13">
-        <v>36705</v>
+        <v>33281</v>
       </c>
       <c r="AW46" s="13">
-        <v>32530</v>
+        <v>43896</v>
       </c>
       <c r="AX46" s="13">
-        <v>33281</v>
+        <v>33136</v>
       </c>
       <c r="AY46" s="13">
-        <v>43896</v>
+        <v>36015</v>
       </c>
       <c r="AZ46" s="13">
-        <v>33136</v>
+        <v>30489</v>
       </c>
       <c r="BA46" s="13">
-        <v>36015</v>
+        <v>27499</v>
       </c>
       <c r="BB46" s="13">
-        <v>30489</v>
+        <v>33614</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>69</v>
       </c>
@@ -5653,94 +5653,94 @@
         <v>0</v>
       </c>
       <c r="Z47" s="15">
-        <v>0</v>
+        <v>178106</v>
       </c>
       <c r="AA47" s="15">
-        <v>0</v>
+        <v>151347</v>
       </c>
       <c r="AB47" s="15">
-        <v>178106</v>
+        <v>81187</v>
       </c>
       <c r="AC47" s="15">
-        <v>151347</v>
+        <v>67319</v>
       </c>
       <c r="AD47" s="15">
-        <v>81187</v>
+        <v>65840</v>
       </c>
       <c r="AE47" s="15">
-        <v>67319</v>
+        <v>139107</v>
       </c>
       <c r="AF47" s="15">
-        <v>65840</v>
+        <v>135548</v>
       </c>
       <c r="AG47" s="15">
-        <v>139107</v>
+        <v>203931</v>
       </c>
       <c r="AH47" s="15">
-        <v>135548</v>
+        <v>170994</v>
       </c>
       <c r="AI47" s="15">
-        <v>203931</v>
+        <v>115141</v>
       </c>
       <c r="AJ47" s="15">
-        <v>170994</v>
+        <v>244222</v>
       </c>
       <c r="AK47" s="15">
-        <v>115141</v>
+        <v>283158</v>
       </c>
       <c r="AL47" s="15">
-        <v>244222</v>
+        <v>207645</v>
       </c>
       <c r="AM47" s="15">
-        <v>283158</v>
+        <v>154251</v>
       </c>
       <c r="AN47" s="15">
-        <v>207645</v>
+        <v>121471</v>
       </c>
       <c r="AO47" s="15">
-        <v>154251</v>
+        <v>62173</v>
       </c>
       <c r="AP47" s="15">
-        <v>121471</v>
+        <v>63839</v>
       </c>
       <c r="AQ47" s="15">
-        <v>62173</v>
+        <v>155391</v>
       </c>
       <c r="AR47" s="15">
-        <v>63839</v>
+        <v>187448</v>
       </c>
       <c r="AS47" s="15">
-        <v>155391</v>
+        <v>278111</v>
       </c>
       <c r="AT47" s="15">
-        <v>187448</v>
+        <v>337418</v>
       </c>
       <c r="AU47" s="15">
-        <v>278111</v>
+        <v>292699</v>
       </c>
       <c r="AV47" s="15">
-        <v>337418</v>
+        <v>229549</v>
       </c>
       <c r="AW47" s="15">
-        <v>292699</v>
+        <v>282446</v>
       </c>
       <c r="AX47" s="15">
-        <v>229549</v>
+        <v>271894</v>
       </c>
       <c r="AY47" s="15">
-        <v>282446</v>
+        <v>263200</v>
       </c>
       <c r="AZ47" s="15">
-        <v>271894</v>
+        <v>207644</v>
       </c>
       <c r="BA47" s="15">
-        <v>263200</v>
+        <v>99671</v>
       </c>
       <c r="BB47" s="15">
-        <v>207644</v>
+        <v>117834</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>77</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
@@ -5868,95 +5868,95 @@
       <c r="Y49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>58</v>
+      <c r="Z49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>0</v>
       </c>
       <c r="AB49" s="11">
-        <v>0</v>
+        <v>60384</v>
       </c>
       <c r="AC49" s="11">
         <v>0</v>
       </c>
       <c r="AD49" s="11">
-        <v>60384</v>
+        <v>42826</v>
       </c>
       <c r="AE49" s="11">
-        <v>0</v>
+        <v>242064</v>
       </c>
       <c r="AF49" s="11">
-        <v>42826</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="11">
-        <v>242064</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="11">
-        <v>0</v>
+        <v>196183</v>
       </c>
       <c r="AI49" s="11">
-        <v>0</v>
+        <v>196101</v>
       </c>
       <c r="AJ49" s="11">
-        <v>196183</v>
+        <v>184633</v>
       </c>
       <c r="AK49" s="11">
-        <v>196101</v>
+        <v>244366</v>
       </c>
       <c r="AL49" s="11">
-        <v>184633</v>
+        <v>155048</v>
       </c>
       <c r="AM49" s="11">
-        <v>244366</v>
+        <v>199137</v>
       </c>
       <c r="AN49" s="11">
-        <v>155048</v>
+        <v>299420</v>
       </c>
       <c r="AO49" s="11">
-        <v>199137</v>
+        <v>97082</v>
       </c>
       <c r="AP49" s="11">
-        <v>299420</v>
+        <v>329677</v>
       </c>
       <c r="AQ49" s="11">
-        <v>97082</v>
+        <v>422578</v>
       </c>
       <c r="AR49" s="11">
-        <v>329677</v>
+        <v>320043</v>
       </c>
       <c r="AS49" s="11">
-        <v>422578</v>
+        <v>185287</v>
       </c>
       <c r="AT49" s="11">
-        <v>320043</v>
+        <v>68669</v>
       </c>
       <c r="AU49" s="11">
-        <v>185287</v>
+        <v>139682</v>
       </c>
       <c r="AV49" s="11">
-        <v>68669</v>
+        <v>132643</v>
       </c>
       <c r="AW49" s="11">
-        <v>139682</v>
+        <v>22556</v>
       </c>
       <c r="AX49" s="11">
-        <v>132643</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="11">
-        <v>22556</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>235839</v>
       </c>
       <c r="BA49" s="11">
-        <v>0</v>
+        <v>66995</v>
       </c>
       <c r="BB49" s="11">
-        <v>235839</v>
+        <v>148140</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
@@ -6027,95 +6027,95 @@
       <c r="Y50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA50" s="13" t="s">
-        <v>58</v>
+      <c r="Z50" s="13">
+        <v>7873</v>
+      </c>
+      <c r="AA50" s="13">
+        <v>8853</v>
       </c>
       <c r="AB50" s="13">
-        <v>7873</v>
+        <v>4592</v>
       </c>
       <c r="AC50" s="13">
-        <v>8853</v>
+        <v>8678</v>
       </c>
       <c r="AD50" s="13">
-        <v>4592</v>
+        <v>7389</v>
       </c>
       <c r="AE50" s="13">
-        <v>8678</v>
+        <v>8927</v>
       </c>
       <c r="AF50" s="13">
-        <v>7389</v>
+        <v>3447</v>
       </c>
       <c r="AG50" s="13">
-        <v>8927</v>
+        <v>10584</v>
       </c>
       <c r="AH50" s="13">
-        <v>3447</v>
+        <v>8885</v>
       </c>
       <c r="AI50" s="13">
-        <v>10584</v>
+        <v>6624</v>
       </c>
       <c r="AJ50" s="13">
-        <v>8885</v>
+        <v>7518</v>
       </c>
       <c r="AK50" s="13">
-        <v>6624</v>
+        <v>22063</v>
       </c>
       <c r="AL50" s="13">
-        <v>7518</v>
+        <v>9254</v>
       </c>
       <c r="AM50" s="13">
-        <v>22063</v>
+        <v>17602</v>
       </c>
       <c r="AN50" s="13">
-        <v>9254</v>
+        <v>13946</v>
       </c>
       <c r="AO50" s="13">
-        <v>17602</v>
+        <v>2257</v>
       </c>
       <c r="AP50" s="13">
-        <v>13946</v>
+        <v>1556</v>
       </c>
       <c r="AQ50" s="13">
-        <v>2257</v>
+        <v>10297</v>
       </c>
       <c r="AR50" s="13">
-        <v>1556</v>
+        <v>13261</v>
       </c>
       <c r="AS50" s="13">
-        <v>10297</v>
+        <v>14051</v>
       </c>
       <c r="AT50" s="13">
-        <v>13261</v>
+        <v>14217</v>
       </c>
       <c r="AU50" s="13">
-        <v>14051</v>
+        <v>9232</v>
       </c>
       <c r="AV50" s="13">
-        <v>14217</v>
+        <v>7234</v>
       </c>
       <c r="AW50" s="13">
-        <v>9232</v>
+        <v>10383</v>
       </c>
       <c r="AX50" s="13">
-        <v>7234</v>
+        <v>12348</v>
       </c>
       <c r="AY50" s="13">
-        <v>10383</v>
+        <v>4889</v>
       </c>
       <c r="AZ50" s="13">
-        <v>12348</v>
+        <v>6728</v>
       </c>
       <c r="BA50" s="13">
-        <v>4889</v>
+        <v>4731</v>
       </c>
       <c r="BB50" s="13">
-        <v>6728</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>71</v>
       </c>
@@ -6185,94 +6185,94 @@
         <v>0</v>
       </c>
       <c r="Z51" s="15">
-        <v>0</v>
+        <v>7873</v>
       </c>
       <c r="AA51" s="15">
-        <v>0</v>
+        <v>8853</v>
       </c>
       <c r="AB51" s="15">
-        <v>7873</v>
+        <v>64976</v>
       </c>
       <c r="AC51" s="15">
-        <v>8853</v>
+        <v>8678</v>
       </c>
       <c r="AD51" s="15">
-        <v>64976</v>
+        <v>50215</v>
       </c>
       <c r="AE51" s="15">
-        <v>8678</v>
+        <v>250991</v>
       </c>
       <c r="AF51" s="15">
-        <v>50215</v>
+        <v>3447</v>
       </c>
       <c r="AG51" s="15">
-        <v>250991</v>
+        <v>10584</v>
       </c>
       <c r="AH51" s="15">
-        <v>3447</v>
+        <v>205068</v>
       </c>
       <c r="AI51" s="15">
-        <v>10584</v>
+        <v>202725</v>
       </c>
       <c r="AJ51" s="15">
-        <v>205068</v>
+        <v>192151</v>
       </c>
       <c r="AK51" s="15">
-        <v>202725</v>
+        <v>266429</v>
       </c>
       <c r="AL51" s="15">
-        <v>192151</v>
+        <v>164302</v>
       </c>
       <c r="AM51" s="15">
-        <v>266429</v>
+        <v>216739</v>
       </c>
       <c r="AN51" s="15">
-        <v>164302</v>
+        <v>313366</v>
       </c>
       <c r="AO51" s="15">
-        <v>216739</v>
+        <v>99339</v>
       </c>
       <c r="AP51" s="15">
-        <v>313366</v>
+        <v>331233</v>
       </c>
       <c r="AQ51" s="15">
-        <v>99339</v>
+        <v>432875</v>
       </c>
       <c r="AR51" s="15">
-        <v>331233</v>
+        <v>333304</v>
       </c>
       <c r="AS51" s="15">
-        <v>432875</v>
+        <v>199338</v>
       </c>
       <c r="AT51" s="15">
-        <v>333304</v>
+        <v>82886</v>
       </c>
       <c r="AU51" s="15">
-        <v>199338</v>
+        <v>148914</v>
       </c>
       <c r="AV51" s="15">
-        <v>82886</v>
+        <v>139877</v>
       </c>
       <c r="AW51" s="15">
-        <v>148914</v>
+        <v>32939</v>
       </c>
       <c r="AX51" s="15">
-        <v>139877</v>
+        <v>12348</v>
       </c>
       <c r="AY51" s="15">
-        <v>32939</v>
+        <v>4889</v>
       </c>
       <c r="AZ51" s="15">
-        <v>12348</v>
+        <v>242567</v>
       </c>
       <c r="BA51" s="15">
-        <v>4889</v>
+        <v>71726</v>
       </c>
       <c r="BB51" s="15">
-        <v>242567</v>
+        <v>148321</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>78</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>65</v>
       </c>
@@ -6400,11 +6400,11 @@
       <c r="Y53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA53" s="15" t="s">
-        <v>58</v>
+      <c r="Z53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="15">
+        <v>0</v>
       </c>
       <c r="AB53" s="15">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>79</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>73</v>
       </c>
@@ -6616,11 +6616,11 @@
       <c r="Y55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA55" s="15" t="s">
-        <v>58</v>
+      <c r="Z55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="15">
+        <v>0</v>
       </c>
       <c r="AB55" s="15">
         <v>0</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>80</v>
       </c>
@@ -6761,7 +6761,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>81</v>
       </c>
@@ -6832,11 +6832,11 @@
       <c r="Y57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA57" s="11" t="s">
-        <v>58</v>
+      <c r="Z57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0</v>
       </c>
       <c r="AB57" s="11">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>66</v>
       </c>
@@ -6990,94 +6990,94 @@
         <v>0</v>
       </c>
       <c r="Z58" s="19">
-        <v>0</v>
+        <v>185979</v>
       </c>
       <c r="AA58" s="19">
-        <v>0</v>
+        <v>160200</v>
       </c>
       <c r="AB58" s="19">
-        <v>185979</v>
+        <v>146163</v>
       </c>
       <c r="AC58" s="19">
-        <v>160200</v>
+        <v>75997</v>
       </c>
       <c r="AD58" s="19">
-        <v>146163</v>
+        <v>116055</v>
       </c>
       <c r="AE58" s="19">
-        <v>75997</v>
+        <v>390098</v>
       </c>
       <c r="AF58" s="19">
-        <v>116055</v>
+        <v>138995</v>
       </c>
       <c r="AG58" s="19">
-        <v>390098</v>
+        <v>214515</v>
       </c>
       <c r="AH58" s="19">
-        <v>138995</v>
+        <v>376062</v>
       </c>
       <c r="AI58" s="19">
-        <v>214515</v>
+        <v>317866</v>
       </c>
       <c r="AJ58" s="19">
-        <v>376062</v>
+        <v>436373</v>
       </c>
       <c r="AK58" s="19">
-        <v>317866</v>
+        <v>549587</v>
       </c>
       <c r="AL58" s="19">
-        <v>436373</v>
+        <v>371947</v>
       </c>
       <c r="AM58" s="19">
-        <v>549587</v>
+        <v>370990</v>
       </c>
       <c r="AN58" s="19">
-        <v>371947</v>
+        <v>434837</v>
       </c>
       <c r="AO58" s="19">
-        <v>370990</v>
+        <v>161512</v>
       </c>
       <c r="AP58" s="19">
-        <v>434837</v>
+        <v>395072</v>
       </c>
       <c r="AQ58" s="19">
-        <v>161512</v>
+        <v>588266</v>
       </c>
       <c r="AR58" s="19">
-        <v>395072</v>
+        <v>520752</v>
       </c>
       <c r="AS58" s="19">
-        <v>588266</v>
+        <v>477449</v>
       </c>
       <c r="AT58" s="19">
-        <v>520752</v>
+        <v>420304</v>
       </c>
       <c r="AU58" s="19">
-        <v>477449</v>
+        <v>441613</v>
       </c>
       <c r="AV58" s="19">
-        <v>420304</v>
+        <v>369426</v>
       </c>
       <c r="AW58" s="19">
-        <v>441613</v>
+        <v>315385</v>
       </c>
       <c r="AX58" s="19">
-        <v>369426</v>
+        <v>284242</v>
       </c>
       <c r="AY58" s="19">
-        <v>315385</v>
+        <v>268089</v>
       </c>
       <c r="AZ58" s="19">
-        <v>284242</v>
+        <v>450211</v>
       </c>
       <c r="BA58" s="19">
-        <v>268089</v>
+        <v>171397</v>
       </c>
       <c r="BB58" s="19">
-        <v>450211</v>
+        <v>266155</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7132,7 +7132,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -7187,7 +7187,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -7242,7 +7242,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>82</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7454,7 +7454,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>83</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -7582,95 +7582,95 @@
       <c r="Y65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA65" s="11" t="s">
-        <v>58</v>
+      <c r="Z65" s="11">
+        <v>2639182</v>
+      </c>
+      <c r="AA65" s="11">
+        <v>2703112</v>
       </c>
       <c r="AB65" s="11">
-        <v>2639182</v>
+        <v>2534772</v>
       </c>
       <c r="AC65" s="11">
-        <v>2703112</v>
+        <v>2501823</v>
       </c>
       <c r="AD65" s="11">
-        <v>2534772</v>
+        <v>2629885</v>
       </c>
       <c r="AE65" s="11">
-        <v>2501823</v>
+        <v>2618534</v>
       </c>
       <c r="AF65" s="11">
-        <v>2629885</v>
+        <v>2636277</v>
       </c>
       <c r="AG65" s="11">
-        <v>2618534</v>
+        <v>3702944</v>
       </c>
       <c r="AH65" s="11">
-        <v>2636277</v>
+        <v>3683108</v>
       </c>
       <c r="AI65" s="11">
-        <v>3702944</v>
+        <v>3688514</v>
       </c>
       <c r="AJ65" s="11">
-        <v>3683108</v>
+        <v>6178129</v>
       </c>
       <c r="AK65" s="11">
-        <v>3688514</v>
+        <v>5408597</v>
       </c>
       <c r="AL65" s="11">
-        <v>6178129</v>
+        <v>4424450</v>
       </c>
       <c r="AM65" s="11">
-        <v>5408597</v>
+        <v>4167577</v>
       </c>
       <c r="AN65" s="11">
-        <v>4424450</v>
+        <v>4054091</v>
       </c>
       <c r="AO65" s="11">
-        <v>4167577</v>
+        <v>3843057</v>
       </c>
       <c r="AP65" s="11">
-        <v>4054091</v>
+        <v>4100191</v>
       </c>
       <c r="AQ65" s="11">
-        <v>3843057</v>
+        <v>4895099</v>
       </c>
       <c r="AR65" s="11">
-        <v>4100191</v>
+        <v>5408692</v>
       </c>
       <c r="AS65" s="11">
-        <v>4895099</v>
+        <v>5106600</v>
       </c>
       <c r="AT65" s="11">
-        <v>5408692</v>
+        <v>5535852</v>
       </c>
       <c r="AU65" s="11">
-        <v>5106600</v>
+        <v>6210618</v>
       </c>
       <c r="AV65" s="11">
-        <v>5535852</v>
+        <v>6238454</v>
       </c>
       <c r="AW65" s="11">
-        <v>6210618</v>
+        <v>6130342</v>
       </c>
       <c r="AX65" s="11">
-        <v>6238454</v>
+        <v>6032746</v>
       </c>
       <c r="AY65" s="11">
-        <v>6130342</v>
+        <v>5748172</v>
       </c>
       <c r="AZ65" s="11">
-        <v>6032746</v>
+        <v>5753093</v>
       </c>
       <c r="BA65" s="11">
-        <v>5748172</v>
+        <v>5817508</v>
       </c>
       <c r="BB65" s="11">
-        <v>5753093</v>
+        <v>5755878</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -7741,95 +7741,95 @@
       <c r="Y66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA66" s="13" t="s">
-        <v>58</v>
+      <c r="Z66" s="13">
+        <v>2576995</v>
+      </c>
+      <c r="AA66" s="13">
+        <v>3020099</v>
       </c>
       <c r="AB66" s="13">
-        <v>2576995</v>
+        <v>2804083</v>
       </c>
       <c r="AC66" s="13">
-        <v>3020099</v>
+        <v>3184123</v>
       </c>
       <c r="AD66" s="13">
-        <v>2804083</v>
+        <v>3231496</v>
       </c>
       <c r="AE66" s="13">
-        <v>3184123</v>
+        <v>3274291</v>
       </c>
       <c r="AF66" s="13">
-        <v>3231496</v>
+        <v>3105506</v>
       </c>
       <c r="AG66" s="13">
-        <v>3274291</v>
+        <v>3066117</v>
       </c>
       <c r="AH66" s="13">
-        <v>3105506</v>
+        <v>4871850</v>
       </c>
       <c r="AI66" s="13">
-        <v>3066117</v>
+        <v>7359046</v>
       </c>
       <c r="AJ66" s="13">
-        <v>4871850</v>
+        <v>5046415</v>
       </c>
       <c r="AK66" s="13">
-        <v>7359046</v>
+        <v>5199749</v>
       </c>
       <c r="AL66" s="13">
-        <v>5046415</v>
+        <v>4934891</v>
       </c>
       <c r="AM66" s="13">
-        <v>5199749</v>
+        <v>5066098</v>
       </c>
       <c r="AN66" s="13">
-        <v>4934891</v>
+        <v>5248155</v>
       </c>
       <c r="AO66" s="13">
-        <v>5066098</v>
+        <v>5266621</v>
       </c>
       <c r="AP66" s="13">
-        <v>5248155</v>
+        <v>5494940</v>
       </c>
       <c r="AQ66" s="13">
-        <v>5266621</v>
+        <v>5337486</v>
       </c>
       <c r="AR66" s="13">
-        <v>5494940</v>
+        <v>5567938</v>
       </c>
       <c r="AS66" s="13">
-        <v>5337486</v>
+        <v>6554063</v>
       </c>
       <c r="AT66" s="13">
-        <v>5567938</v>
+        <v>6795964</v>
       </c>
       <c r="AU66" s="13">
-        <v>6554063</v>
+        <v>6970216</v>
       </c>
       <c r="AV66" s="13">
-        <v>6795964</v>
+        <v>6864893</v>
       </c>
       <c r="AW66" s="13">
-        <v>6970216</v>
+        <v>6852326</v>
       </c>
       <c r="AX66" s="13">
-        <v>6864893</v>
+        <v>7172294</v>
       </c>
       <c r="AY66" s="13">
-        <v>6852326</v>
+        <v>7053467</v>
       </c>
       <c r="AZ66" s="13">
-        <v>7172294</v>
+        <v>7264475</v>
       </c>
       <c r="BA66" s="13">
-        <v>7053467</v>
+        <v>7380301</v>
       </c>
       <c r="BB66" s="13">
-        <v>7264475</v>
+        <v>7180944</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>85</v>
       </c>
@@ -7886,7 +7886,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>62</v>
       </c>
@@ -7963,89 +7963,89 @@
       <c r="AA68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB68" s="11" t="s">
-        <v>58</v>
+      <c r="AB68" s="11">
+        <v>4279821</v>
       </c>
       <c r="AC68" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AD68" s="11">
-        <v>4279821</v>
-      </c>
-      <c r="AE68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF68" s="11">
         <v>3936213</v>
       </c>
-      <c r="AG68" s="11">
+      <c r="AE68" s="11">
         <v>4321260</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI68" s="11" t="s">
-        <v>58</v>
+      <c r="AF68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH68" s="11">
+        <v>4433113</v>
+      </c>
+      <c r="AI68" s="11">
+        <v>7837143</v>
       </c>
       <c r="AJ68" s="11">
-        <v>4433113</v>
+        <v>5499777</v>
       </c>
       <c r="AK68" s="11">
-        <v>7837143</v>
+        <v>6210537</v>
       </c>
       <c r="AL68" s="11">
-        <v>5499777</v>
+        <v>7456023</v>
       </c>
       <c r="AM68" s="11">
-        <v>6210537</v>
+        <v>6269070</v>
       </c>
       <c r="AN68" s="11">
-        <v>7456023</v>
+        <v>6452600</v>
       </c>
       <c r="AO68" s="11">
-        <v>6269070</v>
+        <v>6420343</v>
       </c>
       <c r="AP68" s="11">
-        <v>6452600</v>
+        <v>5990860</v>
       </c>
       <c r="AQ68" s="11">
-        <v>6420343</v>
+        <v>6356755</v>
       </c>
       <c r="AR68" s="11">
-        <v>5990860</v>
+        <v>6383497</v>
       </c>
       <c r="AS68" s="11">
-        <v>6356755</v>
+        <v>6500158</v>
       </c>
       <c r="AT68" s="11">
-        <v>6383497</v>
+        <v>6866900</v>
       </c>
       <c r="AU68" s="11">
-        <v>6500158</v>
+        <v>6984100</v>
       </c>
       <c r="AV68" s="11">
-        <v>6866900</v>
+        <v>6632150</v>
       </c>
       <c r="AW68" s="11">
-        <v>6984100</v>
-      </c>
-      <c r="AX68" s="11">
-        <v>6632150</v>
-      </c>
-      <c r="AY68" s="11">
         <v>5906258</v>
       </c>
-      <c r="AZ68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA68" s="11" t="s">
-        <v>58</v>
+      <c r="AX68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ68" s="11">
+        <v>6379372</v>
+      </c>
+      <c r="BA68" s="11">
+        <v>6646329</v>
       </c>
       <c r="BB68" s="11">
-        <v>6379372</v>
+        <v>9507734</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>59</v>
       </c>
@@ -8116,92 +8116,92 @@
       <c r="Y69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA69" s="13" t="s">
-        <v>58</v>
+      <c r="Z69" s="13">
+        <v>5072809</v>
+      </c>
+      <c r="AA69" s="13">
+        <v>5141115</v>
       </c>
       <c r="AB69" s="13">
-        <v>5072809</v>
+        <v>5879641</v>
       </c>
       <c r="AC69" s="13">
-        <v>5141115</v>
+        <v>6038970</v>
       </c>
       <c r="AD69" s="13">
-        <v>5879641</v>
+        <v>6041701</v>
       </c>
       <c r="AE69" s="13">
-        <v>6038970</v>
+        <v>6068661</v>
       </c>
       <c r="AF69" s="13">
-        <v>6041701</v>
+        <v>5953368</v>
       </c>
       <c r="AG69" s="13">
-        <v>6068661</v>
+        <v>6639900</v>
       </c>
       <c r="AH69" s="13">
-        <v>5953368</v>
+        <v>6640508</v>
       </c>
       <c r="AI69" s="13">
-        <v>6639900</v>
+        <v>8198020</v>
       </c>
       <c r="AJ69" s="13">
-        <v>6640508</v>
+        <v>7334634</v>
       </c>
       <c r="AK69" s="13">
-        <v>8198020</v>
+        <v>8846431</v>
       </c>
       <c r="AL69" s="13">
-        <v>7334634</v>
+        <v>7391374</v>
       </c>
       <c r="AM69" s="13">
-        <v>8846431</v>
+        <v>8381905</v>
       </c>
       <c r="AN69" s="13">
-        <v>7391374</v>
+        <v>6799610</v>
       </c>
       <c r="AO69" s="13">
-        <v>8381905</v>
+        <v>6580175</v>
       </c>
       <c r="AP69" s="13">
-        <v>6799610</v>
+        <v>6678112</v>
       </c>
       <c r="AQ69" s="13">
-        <v>6580175</v>
+        <v>7661458</v>
       </c>
       <c r="AR69" s="13">
-        <v>6678112</v>
+        <v>6832045</v>
       </c>
       <c r="AS69" s="13">
-        <v>7661458</v>
+        <v>6493068</v>
       </c>
       <c r="AT69" s="13">
-        <v>6832045</v>
+        <v>5783971</v>
       </c>
       <c r="AU69" s="13">
-        <v>6493068</v>
+        <v>5802640</v>
       </c>
       <c r="AV69" s="13">
-        <v>5783971</v>
+        <v>5736717</v>
       </c>
       <c r="AW69" s="13">
-        <v>5802640</v>
+        <v>6409259</v>
       </c>
       <c r="AX69" s="13">
-        <v>5736717</v>
+        <v>6404564</v>
       </c>
       <c r="AY69" s="13">
-        <v>6409259</v>
+        <v>6544846</v>
       </c>
       <c r="AZ69" s="13">
-        <v>6404564</v>
+        <v>6667988</v>
       </c>
       <c r="BA69" s="13">
-        <v>6544846</v>
+        <v>6471956</v>
       </c>
       <c r="BB69" s="13">
-        <v>6667988</v>
+        <v>6961538</v>
       </c>
     </row>
   </sheetData>
